--- a/tests/test1/d30/N, 0.1.xlsx
+++ b/tests/test1/d30/N, 0.1.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003200999999961596</v>
+        <v>0.000526800000002936</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003096999999954164</v>
+        <v>0.000530900000001111</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003030999999964479</v>
+        <v>0.0005379999999988172</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0005621000000033405</v>
+        <v>0.0006233000000008815</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003237000000027024</v>
+        <v>0.0006649999999979173</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0002923000000052411</v>
+        <v>0.0006500000000002615</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.000302399999995373</v>
+        <v>0.0006081999999949517</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003069999999993911</v>
+        <v>0.0005664000000038527</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002911999999994919</v>
+        <v>0.0005819000000002461</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0002884999999963611</v>
+        <v>0.0005421999999981608</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003336000000047079</v>
+        <v>0.0005236000000010677</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003055999999972414</v>
+        <v>0.001036299999995549</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0002920999999957985</v>
+        <v>0.0005256999999971868</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003050000000044406</v>
+        <v>0.0005795000000006212</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003323000000037268</v>
+        <v>0.001270000000005211</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0005729000000016526</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0002973000000068282</v>
+        <v>0.0005476000000044223</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0005426000000028353</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003110999999975661</v>
+        <v>0.0006787000000016974</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003032000000047219</v>
+        <v>0.0007039999999989277</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003365000000030705</v>
+        <v>0.000557600000000491</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003244999999978404</v>
+        <v>0.000573199999998053</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002854000000027668</v>
+        <v>0.0005661999999944101</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002885000000034665</v>
+        <v>0.0005711000000019339</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0004537999999953968</v>
+        <v>0.0005127000000015869</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003219000000029837</v>
+        <v>0.00118760000000151</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003361999999995646</v>
+        <v>0.0005665999999990845</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003017999999954668</v>
+        <v>0.0006976000000022964</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003243999999966718</v>
+        <v>0.0005775000000056707</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.001106499999998789</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003171000000037338</v>
+        <v>0.002361000000000502</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003166999999990594</v>
+        <v>0.001364100000003532</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0005286000000026547</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.000301999999997804</v>
+        <v>0.001433599999998592</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0012437000000034</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003122999999973786</v>
+        <v>0.0006373999999951252</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003304000000028395</v>
+        <v>0.0005376999999953114</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.00068329999999861</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003219999999970469</v>
+        <v>0.0007750999999984742</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003182000000023777</v>
+        <v>0.002709199999998191</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0002977000000043972</v>
+        <v>0.001489700000000482</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0003492999999963331</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003354999999984898</v>
+        <v>0.0003180000000000405</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0004519999999956781</v>
+        <v>0.0006407999999993308</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0006733999999966045</v>
+        <v>0.000511600000002943</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003424000000009642</v>
+        <v>0.00054160000000536</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003245000000049458</v>
+        <v>0.0005041000000005624</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0005383999999963862</v>
+        <v>0.0005037000000029934</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0004791999999937957</v>
+        <v>0.000500100000003556</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003589999999960014</v>
+        <v>0.0004647999999960462</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003290000000006899</v>
+        <v>0.0003139000000018655</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003065000000006535</v>
+        <v>0.0005000999999964506</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003062000000042531</v>
+        <v>0.000508299999999906</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0003412999999952149</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002937000000002854</v>
+        <v>0.0002907000000007542</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003116000000034091</v>
+        <v>0.0003014999999990664</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003254999999953156</v>
+        <v>0.0002935999999991168</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002974999999949546</v>
+        <v>0.0003242999999955032</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002940999999978544</v>
+        <v>0.0003073000000028969</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.000329099999994753</v>
+        <v>0.0003446999999994205</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002897999999973422</v>
+        <v>0.000339799999999002</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002929999999992106</v>
+        <v>0.0002920999999957985</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003017000000014036</v>
+        <v>0.0002902000000020166</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003101000000000909</v>
+        <v>0.0002953999999988355</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.000286799999997811</v>
+        <v>0.0003139000000018655</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002905000000055225</v>
+        <v>0.0003028000000000475</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003493999999975017</v>
+        <v>0.0003038999999986913</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002909000000030915</v>
+        <v>0.0003557000000000698</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002900999999937426</v>
+        <v>0.0003127999999961162</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.000306099999995979</v>
+        <v>0.0002920000000017353</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003202000000044336</v>
+        <v>0.0003136999999995282</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.0003103999999964913</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.000306099999995979</v>
+        <v>0.0002885999999975297</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0006242999999983567</v>
+        <v>0.0003071000000005597</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.000328299999999615</v>
+        <v>0.0004546999999988088</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0002980000000007976</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0003132999999948538</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0003061000000030845</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002919999999946299</v>
+        <v>0.0003247000000001776</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.00031219999999621</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0005750999999989403</v>
+        <v>0.0002946999999977606</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003578000000032944</v>
+        <v>0.0003918999999967809</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.000358699999999601</v>
+        <v>0.0003959000000008928</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0006667000000035728</v>
+        <v>0.0003188000000022839</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0005281999999979803</v>
+        <v>0.0002969000000021538</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0006308999999973253</v>
+        <v>0.0003106999999999971</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003326000000001272</v>
+        <v>0.0003004000000004226</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003341000000034455</v>
+        <v>0.0002915000000029977</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.000480800000005388</v>
+        <v>0.0003038999999986913</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0004259999999973729</v>
+        <v>0.0003140000000030341</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0002988999999971043</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0005006000000022937</v>
+        <v>0.0002922999999981357</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0003117999999986409</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002952000000036037</v>
+        <v>0.0003037000000034595</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0004121999999995296</v>
+        <v>0.0002917000000053349</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.000328299999999615</v>
+        <v>0.0003036999999963541</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0003264999999998963</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0004307999999966228</v>
+        <v>0.0002867000000037478</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003166999999990594</v>
+        <v>0.0002899999999996794</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002916000000041663</v>
+        <v>0.0003518999999982952</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.1.xlsx
+++ b/tests/test1/d30/N, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000526800000002936</v>
+        <v>0.0003326000000072327</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.000530900000001111</v>
+        <v>0.0002939999999966858</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0005379999999988172</v>
+        <v>0.0004454999999978781</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0006233000000008815</v>
+        <v>0.0003365000000030705</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0006649999999979173</v>
+        <v>0.0002958999999975731</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0006500000000002615</v>
+        <v>0.0003116999999974723</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0006081999999949517</v>
+        <v>0.0003303000000016709</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005664000000038527</v>
+        <v>0.0002935999999920114</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005819000000002461</v>
+        <v>0.0003080999999980349</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0005421999999981608</v>
+        <v>0.0003491000000082067</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0005236000000010677</v>
+        <v>0.0003116000000034091</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.001036299999995549</v>
+        <v>0.0003278000000079828</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005256999999971868</v>
+        <v>0.0008687999999921203</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0005795000000006212</v>
+        <v>0.0006892999999905669</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.001270000000005211</v>
+        <v>0.0003544000000061942</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005729000000016526</v>
+        <v>0.0003297000000088701</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0005476000000044223</v>
+        <v>0.0004909999999966885</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005426000000028353</v>
+        <v>0.0003552000000013322</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0006787000000016974</v>
+        <v>0.0003326000000072327</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0007039999999989277</v>
+        <v>0.000325399999994147</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.000557600000000491</v>
+        <v>0.0003422999999997955</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.000573199999998053</v>
+        <v>0.0002972999999997228</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0005661999999944101</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0005711000000019339</v>
+        <v>0.0003172999999918602</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0005127000000015869</v>
+        <v>0.0002972999999997228</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.00118760000000151</v>
+        <v>0.0002951000000024351</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0005665999999990845</v>
+        <v>0.0003439000000042824</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0006976000000022964</v>
+        <v>0.0003123999999985472</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0005775000000056707</v>
+        <v>0.0003146000000100457</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.001106499999998789</v>
+        <v>0.0003676999999981945</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.002361000000000502</v>
+        <v>0.0003020000000049095</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.001364100000003532</v>
+        <v>0.0003253000000000839</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0005286000000026547</v>
+        <v>0.001473599999997077</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.001433599999998592</v>
+        <v>0.0003177999999905978</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0012437000000034</v>
+        <v>0.0002940000000108967</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0006373999999951252</v>
+        <v>0.0002979000000067344</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0005376999999953114</v>
+        <v>0.0003303000000016709</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.00068329999999861</v>
+        <v>0.0002929999999992106</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0007750999999984742</v>
+        <v>0.0002903000000031852</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.002709199999998191</v>
+        <v>0.0003291999999959216</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.001489700000000482</v>
+        <v>0.0003003000000063594</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003492999999963331</v>
+        <v>0.0003102999999953227</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003180000000000405</v>
+        <v>0.0005953000000005204</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0006407999999993308</v>
+        <v>0.0003182000000094831</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.000511600000002943</v>
+        <v>0.0003129000000114956</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.00054160000000536</v>
+        <v>0.0003401000000025078</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0005041000000005624</v>
+        <v>0.0003380999999933465</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0005037000000029934</v>
+        <v>0.0002982000000031348</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.000500100000003556</v>
+        <v>0.0003329999999976962</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0004647999999960462</v>
+        <v>0.0003159000000039214</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003139000000018655</v>
+        <v>0.0002996999999993477</v>
       </c>
     </row>
     <row r="53">
@@ -3190,7 +3190,7 @@
         <v>123.7423322000219</v>
       </c>
       <c r="H53" t="n">
-        <v>3.499982004795275</v>
+        <v>3.499982004795276</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3208,7 +3208,7 @@
         <v>0.00991854312877098</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1207126720716976</v>
+        <v>0.1207126720716973</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0005000999999964506</v>
+        <v>0.0003201000000103704</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000508299999999906</v>
+        <v>0.0002958000000035099</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003412999999952149</v>
+        <v>0.0003266999999880227</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002907000000007542</v>
+        <v>0.0002975999999961232</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003014999999990664</v>
+        <v>0.0003147000000041089</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002935999999991168</v>
+        <v>0.0003267000000022335</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003242999999955032</v>
+        <v>0.0003048000000092088</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003073000000028969</v>
+        <v>0.0003147999999981721</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003446999999994205</v>
+        <v>0.0005945000000053824</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000339799999999002</v>
+        <v>0.00032039999999256</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002920999999957985</v>
+        <v>0.0003080000000039718</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002902000000020166</v>
+        <v>0.0003117999999915355</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.0003225999999898477</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003139000000018655</v>
+        <v>0.0003138000000006969</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003028000000000475</v>
+        <v>0.0002902999999889744</v>
       </c>
     </row>
     <row r="68">
@@ -3970,7 +3970,7 @@
         <v>22.76074621089596</v>
       </c>
       <c r="H68" t="n">
-        <v>5.889735855853495</v>
+        <v>5.889735855853496</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3988,7 +3988,7 @@
         <v>0.01168690940292147</v>
       </c>
       <c r="N68" t="n">
-        <v>0.8625349841275802</v>
+        <v>0.8625349841275808</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003038999999986913</v>
+        <v>0.0003418000000010579</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003557000000000698</v>
+        <v>0.0003043999999903235</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003127999999961162</v>
+        <v>0.0003536000000110562</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.001021699999995462</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003136999999995282</v>
+        <v>0.0003193000000010215</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003103999999964913</v>
+        <v>0.0003037000000034595</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002885999999975297</v>
+        <v>0.0003078000000016345</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.0003358999999960588</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0004546999999988088</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0003119999999938727</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003132999999948538</v>
+        <v>0.0003399000000001706</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003061000000030845</v>
+        <v>0.0003131999999936852</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003247000000001776</v>
+        <v>0.0003001999999980853</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.00031219999999621</v>
+        <v>0.0003358000000019956</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002946999999977606</v>
+        <v>0.0003361999999924592</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003918999999967809</v>
+        <v>0.0002995000000112213</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003959000000008928</v>
+        <v>0.0003094000000061214</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003188000000022839</v>
+        <v>0.000325399999994147</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002969000000021538</v>
+        <v>0.0003259000000070955</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0003217000000006465</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0003307000000063454</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002915000000029977</v>
+        <v>0.000305599999990136</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003038999999986913</v>
+        <v>0.0003137000000066337</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003140000000030341</v>
+        <v>0.00059500000000412</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002988999999971043</v>
+        <v>0.0003127000000091584</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.0003090999999955102</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003117999999986409</v>
+        <v>0.0003085000000027094</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003037000000034595</v>
+        <v>0.0003190999999986843</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002917000000053349</v>
+        <v>0.0003109000000023343</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003036999999963541</v>
+        <v>0.0003029000000083215</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003264999999998963</v>
+        <v>0.0003164999999967222</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002867000000037478</v>
+        <v>0.0002958999999975731</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002899999999996794</v>
+        <v>0.0003262999999975591</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003518999999982952</v>
+        <v>0.0004488000000009151</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.1.xlsx
+++ b/tests/test1/d30/N, 0.1.xlsx
@@ -532,13 +532,13 @@
         <v>359.8235947654032</v>
       </c>
       <c r="F2" t="n">
-        <v>30.42400538278886</v>
+        <v>30.42400538279396</v>
       </c>
       <c r="G2" t="n">
-        <v>96.46886691296707</v>
+        <v>96.46886691296652</v>
       </c>
       <c r="H2" t="n">
-        <v>12.06231373236048</v>
+        <v>12.06231373236308</v>
       </c>
       <c r="I2" t="n">
         <v>30.54452539071436</v>
@@ -547,16 +547,16 @@
         <v>29.33066725219249</v>
       </c>
       <c r="K2" t="n">
-        <v>30.56517354414839</v>
+        <v>30.56517354414875</v>
       </c>
       <c r="L2" t="n">
-        <v>30.40088663113857</v>
+        <v>30.40088663114434</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01202174935848615</v>
+        <v>0.01202174935848188</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2275301137843859</v>
+        <v>0.227530113785382</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003326000000072327</v>
+        <v>0.000254699999999275</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.8375654636337</v>
       </c>
       <c r="F3" t="n">
-        <v>29.95227860074015</v>
+        <v>29.95227860073714</v>
       </c>
       <c r="G3" t="n">
-        <v>72.99251226258731</v>
+        <v>72.99251226258833</v>
       </c>
       <c r="H3" t="n">
-        <v>12.06610350214602</v>
+        <v>12.06610350214425</v>
       </c>
       <c r="I3" t="n">
         <v>25.33705432792731</v>
@@ -599,16 +599,16 @@
         <v>34.28275889914102</v>
       </c>
       <c r="K3" t="n">
-        <v>25.31203283220039</v>
+        <v>25.31203283220022</v>
       </c>
       <c r="L3" t="n">
-        <v>34.92389619043424</v>
+        <v>34.9238961904299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01222483151778798</v>
+        <v>0.01222483151779105</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1798610980428173</v>
+        <v>0.1798610980422427</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002939999999966858</v>
+        <v>0.0002093999999956964</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.04167578474055147</v>
       </c>
       <c r="F4" t="n">
-        <v>29.86728493301296</v>
+        <v>29.86728493301385</v>
       </c>
       <c r="G4" t="n">
-        <v>86.62573134268129</v>
+        <v>86.62573134267195</v>
       </c>
       <c r="H4" t="n">
-        <v>3.118915303774186</v>
+        <v>3.118915303774477</v>
       </c>
       <c r="I4" t="n">
         <v>10.18789668310031</v>
@@ -651,16 +651,16 @@
         <v>28.62860242763599</v>
       </c>
       <c r="K4" t="n">
-        <v>10.17078310346615</v>
+        <v>10.17078310346624</v>
       </c>
       <c r="L4" t="n">
-        <v>27.9097829666118</v>
+        <v>27.90978296661334</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01074323047849431</v>
+        <v>0.01074323047849346</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3949089086458456</v>
+        <v>0.3949089086452806</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0004454999999978781</v>
+        <v>0.0002031000000002336</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.8211371526569</v>
       </c>
       <c r="F5" t="n">
-        <v>30.27372255152145</v>
+        <v>30.27372255150814</v>
       </c>
       <c r="G5" t="n">
-        <v>96.74778747445816</v>
+        <v>96.74778747446061</v>
       </c>
       <c r="H5" t="n">
-        <v>11.89349451925997</v>
+        <v>11.89349451925314</v>
       </c>
       <c r="I5" t="n">
         <v>30.42186793534146</v>
@@ -703,16 +703,16 @@
         <v>29.21316117156715</v>
       </c>
       <c r="K5" t="n">
-        <v>30.41108785786585</v>
+        <v>30.41108785786493</v>
       </c>
       <c r="L5" t="n">
-        <v>30.1249648324573</v>
+        <v>30.12496483244201</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01391704599657735</v>
+        <v>0.01391704599659056</v>
       </c>
       <c r="N5" t="n">
-        <v>0.200653918925895</v>
+        <v>0.2006539189237053</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003365000000030705</v>
+        <v>0.0001946000000003778</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9949438292857</v>
       </c>
       <c r="F6" t="n">
-        <v>29.86746569817706</v>
+        <v>29.86746569817749</v>
       </c>
       <c r="G6" t="n">
-        <v>174.2402047165744</v>
+        <v>174.2402047165748</v>
       </c>
       <c r="H6" t="n">
-        <v>9.587892034952498</v>
+        <v>9.58789203495304</v>
       </c>
       <c r="I6" t="n">
         <v>8.399717828514826</v>
@@ -755,16 +755,16 @@
         <v>16.13813378453141</v>
       </c>
       <c r="K6" t="n">
-        <v>8.360243232255344</v>
+        <v>8.360243232255421</v>
       </c>
       <c r="L6" t="n">
-        <v>15.97346209857207</v>
+        <v>15.97346209857184</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009478563535617907</v>
+        <v>0.009478563535617691</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03676115522404903</v>
+        <v>0.03676115522420254</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.000193500000001734</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.9558772513115</v>
       </c>
       <c r="F7" t="n">
-        <v>29.77183766955709</v>
+        <v>29.77183766955665</v>
       </c>
       <c r="G7" t="n">
-        <v>39.61009792014888</v>
+        <v>39.61009792014958</v>
       </c>
       <c r="H7" t="n">
-        <v>13.53625955099522</v>
+        <v>13.53625955099456</v>
       </c>
       <c r="I7" t="n">
         <v>16.18089193105339</v>
@@ -807,16 +807,16 @@
         <v>41.39368334310793</v>
       </c>
       <c r="K7" t="n">
-        <v>16.17160877158164</v>
+        <v>16.17160877158162</v>
       </c>
       <c r="L7" t="n">
-        <v>41.30379844789613</v>
+        <v>41.30379844789491</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009805936257494664</v>
+        <v>0.009805936257495292</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03091689731113363</v>
+        <v>0.03091689731105005</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003116999999974723</v>
+        <v>0.0002737000000010426</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.03117836734874744</v>
       </c>
       <c r="F8" t="n">
-        <v>29.77925556301082</v>
+        <v>29.77925556301183</v>
       </c>
       <c r="G8" t="n">
-        <v>162.2287569268683</v>
+        <v>162.2287569268664</v>
       </c>
       <c r="H8" t="n">
-        <v>7.187187297589479</v>
+        <v>7.187187297589459</v>
       </c>
       <c r="I8" t="n">
         <v>11.43325161517759</v>
@@ -859,16 +859,16 @@
         <v>19.8676358558312</v>
       </c>
       <c r="K8" t="n">
-        <v>11.39445915645486</v>
+        <v>11.394459156455</v>
       </c>
       <c r="L8" t="n">
-        <v>19.33081251918765</v>
+        <v>19.33081251918881</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009440697475335748</v>
+        <v>0.00944069747533474</v>
       </c>
       <c r="N8" t="n">
-        <v>0.165402087282601</v>
+        <v>0.1654020872824124</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003303000000016709</v>
+        <v>0.0002114999999989209</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.83094742962</v>
       </c>
       <c r="F9" t="n">
-        <v>28.63282333788849</v>
+        <v>28.6328233378886</v>
       </c>
       <c r="G9" t="n">
-        <v>12.53639125804115</v>
+        <v>12.53639125804129</v>
       </c>
       <c r="H9" t="n">
-        <v>14.15389722982262</v>
+        <v>14.15389722982245</v>
       </c>
       <c r="I9" t="n">
         <v>6.405887000684803</v>
@@ -911,16 +911,16 @@
         <v>42.05289827013716</v>
       </c>
       <c r="K9" t="n">
-        <v>6.393020369057168</v>
+        <v>6.393020369057181</v>
       </c>
       <c r="L9" t="n">
-        <v>42.86261155367957</v>
+        <v>42.86261155367949</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01255371802105371</v>
+        <v>0.01255371802105376</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4283542623093166</v>
+        <v>0.4283542623092688</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002935999999920114</v>
+        <v>0.0001973000000035086</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.990879528338</v>
       </c>
       <c r="F10" t="n">
-        <v>29.85992459831298</v>
+        <v>29.85992459830606</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1924909381776</v>
+        <v>157.1924909381802</v>
       </c>
       <c r="H10" t="n">
-        <v>14.53546085816428</v>
+        <v>14.53546085816055</v>
       </c>
       <c r="I10" t="n">
         <v>35.40628251682527</v>
@@ -963,16 +963,16 @@
         <v>13.7482000025743</v>
       </c>
       <c r="K10" t="n">
-        <v>35.37495953787766</v>
+        <v>35.37495953787671</v>
       </c>
       <c r="L10" t="n">
-        <v>13.69274288669135</v>
+        <v>13.69274288668739</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01109488807749379</v>
+        <v>0.01109488807750154</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03005272087701541</v>
+        <v>0.03005272087830865</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003080999999980349</v>
+        <v>0.0002180000000038262</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9998891445288</v>
       </c>
       <c r="F11" t="n">
-        <v>29.92055554612321</v>
+        <v>29.92055554612282</v>
       </c>
       <c r="G11" t="n">
-        <v>1.735171630203421</v>
+        <v>1.73517163020337</v>
       </c>
       <c r="H11" t="n">
-        <v>8.556038710342959</v>
+        <v>8.556038710343593</v>
       </c>
       <c r="I11" t="n">
         <v>2.283217732932411</v>
@@ -1018,13 +1018,13 @@
         <v>2.258049340031874</v>
       </c>
       <c r="L11" t="n">
-        <v>37.59592441367362</v>
+        <v>37.59592441367399</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01058913085722264</v>
+        <v>0.01058913085722262</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1667121687359168</v>
+        <v>0.1667121687357264</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003491000000082067</v>
+        <v>0.0002227000000019075</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.866841349587</v>
       </c>
       <c r="F12" t="n">
-        <v>29.60848531627606</v>
+        <v>29.608485316276</v>
       </c>
       <c r="G12" t="n">
-        <v>120.2889742052761</v>
+        <v>120.2889742052724</v>
       </c>
       <c r="H12" t="n">
-        <v>2.690274445136956</v>
+        <v>2.690274445136876</v>
       </c>
       <c r="I12" t="n">
         <v>8.689710829394025</v>
@@ -1070,13 +1070,13 @@
         <v>8.717821787370092</v>
       </c>
       <c r="L12" t="n">
-        <v>25.66025630616064</v>
+        <v>25.66025630616082</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01060520414002619</v>
+        <v>0.0106052041400262</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9632148308612707</v>
+        <v>0.9632148308614383</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003116000000034091</v>
+        <v>0.0002420000000000755</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.8250545258695</v>
       </c>
       <c r="F13" t="n">
-        <v>28.70273838863151</v>
+        <v>28.70273838863165</v>
       </c>
       <c r="G13" t="n">
-        <v>21.671109773151</v>
+        <v>21.67110977315311</v>
       </c>
       <c r="H13" t="n">
-        <v>5.182173192577177</v>
+        <v>5.182173192576538</v>
       </c>
       <c r="I13" t="n">
         <v>6.055750253915085</v>
@@ -1122,13 +1122,13 @@
         <v>6.053402777007712</v>
       </c>
       <c r="L13" t="n">
-        <v>32.0439879282869</v>
+        <v>32.04398792828624</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0131395850216591</v>
+        <v>0.01313958502165945</v>
       </c>
       <c r="N13" t="n">
-        <v>1.842011894938783</v>
+        <v>1.8420118949382</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003278000000079828</v>
+        <v>0.000217299999995646</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.952701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>29.79334867317832</v>
+        <v>29.79334867317833</v>
       </c>
       <c r="G14" t="n">
-        <v>27.08100978686385</v>
+        <v>27.08100978686376</v>
       </c>
       <c r="H14" t="n">
-        <v>12.30638621271397</v>
+        <v>12.30638621271404</v>
       </c>
       <c r="I14" t="n">
         <v>11.04565230035812</v>
@@ -1174,13 +1174,13 @@
         <v>11.04153145384343</v>
       </c>
       <c r="L14" t="n">
-        <v>41.08612927403412</v>
+        <v>41.08612927403423</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01049505444090586</v>
+        <v>0.01049505444090588</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1208464097328411</v>
+        <v>0.1208464097328644</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0008687999999921203</v>
+        <v>0.0001938000000052398</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.07123906620506157</v>
       </c>
       <c r="F15" t="n">
-        <v>29.73215728603976</v>
+        <v>29.73215728603776</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6406548898631</v>
+        <v>143.6406548898656</v>
       </c>
       <c r="H15" t="n">
-        <v>6.018346038782367</v>
+        <v>6.018346038781942</v>
       </c>
       <c r="I15" t="n">
         <v>14.48335361376716</v>
@@ -1223,16 +1223,16 @@
         <v>22.72893730129499</v>
       </c>
       <c r="K15" t="n">
-        <v>14.45077118299955</v>
+        <v>14.4507711829993</v>
       </c>
       <c r="L15" t="n">
-        <v>21.99566693598901</v>
+        <v>21.99566693598715</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009360376658390759</v>
+        <v>0.00936037665839246</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2249956565199944</v>
+        <v>0.224995656520076</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0006892999999905669</v>
+        <v>0.0001925999999983219</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.8448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>30.26991127369502</v>
+        <v>30.26991127369748</v>
       </c>
       <c r="G16" t="n">
-        <v>90.34678379962061</v>
+        <v>90.34678379962031</v>
       </c>
       <c r="H16" t="n">
-        <v>12.73692112306369</v>
+        <v>12.73692112306503</v>
       </c>
       <c r="I16" t="n">
         <v>30.72180748031497</v>
@@ -1275,16 +1275,16 @@
         <v>31.10359375652314</v>
       </c>
       <c r="K16" t="n">
-        <v>30.71235336187006</v>
+        <v>30.71235336187023</v>
       </c>
       <c r="L16" t="n">
-        <v>32.05720349092984</v>
+        <v>32.05720349093285</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01296343481055786</v>
+        <v>0.01296343481055543</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2009854430764359</v>
+        <v>0.2009854430768427</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003544000000061942</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.0312328481543536</v>
       </c>
       <c r="F17" t="n">
-        <v>29.77544991413004</v>
+        <v>29.77544991413041</v>
       </c>
       <c r="G17" t="n">
-        <v>154.8133985459748</v>
+        <v>154.8133985459756</v>
       </c>
       <c r="H17" t="n">
-        <v>5.296881972185237</v>
+        <v>5.296881972185472</v>
       </c>
       <c r="I17" t="n">
         <v>10.34172524231339</v>
@@ -1327,16 +1327,16 @@
         <v>22.25264734341951</v>
       </c>
       <c r="K17" t="n">
-        <v>10.30354302253072</v>
+        <v>10.30354302253078</v>
       </c>
       <c r="L17" t="n">
-        <v>21.7580058185335</v>
+        <v>21.75800581853358</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01019988364110465</v>
+        <v>0.01019988364110442</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1701733422808007</v>
+        <v>0.1701733422809168</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003297000000088701</v>
+        <v>0.0002462999999934823</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>29.46786533896604</v>
+        <v>29.46786533896417</v>
       </c>
       <c r="G18" t="n">
-        <v>40.07958141065233</v>
+        <v>40.07958141065256</v>
       </c>
       <c r="H18" t="n">
-        <v>9.070603164980797</v>
+        <v>9.07060316497979</v>
       </c>
       <c r="I18" t="n">
         <v>13.10617957966178</v>
@@ -1379,16 +1379,16 @@
         <v>36.84819385366504</v>
       </c>
       <c r="K18" t="n">
-        <v>13.07741194609639</v>
+        <v>13.07741194609625</v>
       </c>
       <c r="L18" t="n">
-        <v>36.11663437393834</v>
+        <v>36.11663437393542</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008645100092460736</v>
+        <v>0.008645100092461964</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09897464277421372</v>
+        <v>0.09897464277464706</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0004909999999966885</v>
+        <v>0.0002043999999941093</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9723734109978</v>
       </c>
       <c r="F19" t="n">
-        <v>29.62579064888716</v>
+        <v>29.62579064888645</v>
       </c>
       <c r="G19" t="n">
-        <v>52.39414691904478</v>
+        <v>52.39414691904326</v>
       </c>
       <c r="H19" t="n">
-        <v>9.353028942826707</v>
+        <v>9.353028942826697</v>
       </c>
       <c r="I19" t="n">
         <v>16.55986375037994</v>
@@ -1431,16 +1431,16 @@
         <v>35.61949574546529</v>
       </c>
       <c r="K19" t="n">
-        <v>16.52882367148979</v>
+        <v>16.52882367148973</v>
       </c>
       <c r="L19" t="n">
-        <v>35.3178275120401</v>
+        <v>35.31782751203957</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01044436314097765</v>
+        <v>0.01044436314097801</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04175391483860053</v>
+        <v>0.04175391483868056</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003552000000013322</v>
+        <v>0.0001924999999971533</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9920571556194</v>
       </c>
       <c r="F20" t="n">
-        <v>29.74906164626233</v>
+        <v>29.74906164626506</v>
       </c>
       <c r="G20" t="n">
-        <v>117.2026515112333</v>
+        <v>117.2026515112322</v>
       </c>
       <c r="H20" t="n">
-        <v>8.975049386313321</v>
+        <v>8.975049386314398</v>
       </c>
       <c r="I20" t="n">
         <v>25.82629642817216</v>
@@ -1483,16 +1483,16 @@
         <v>24.92281376836615</v>
       </c>
       <c r="K20" t="n">
-        <v>25.81836145681155</v>
+        <v>25.8183614568118</v>
       </c>
       <c r="L20" t="n">
-        <v>24.67206824442366</v>
+        <v>24.67206824442628</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01039474446583056</v>
+        <v>0.01039474446582833</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04706146916199906</v>
+        <v>0.04706146916143497</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003326000000072327</v>
+        <v>0.0001959999999954221</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9778996737318</v>
       </c>
       <c r="F21" t="n">
-        <v>29.49852574738181</v>
+        <v>29.4985257473828</v>
       </c>
       <c r="G21" t="n">
-        <v>17.21643145877652</v>
+        <v>17.21643145877673</v>
       </c>
       <c r="H21" t="n">
-        <v>12.20479167470411</v>
+        <v>12.20479167470478</v>
       </c>
       <c r="I21" t="n">
         <v>7.677292830157072</v>
@@ -1535,16 +1535,16 @@
         <v>41.64062699719003</v>
       </c>
       <c r="K21" t="n">
-        <v>7.655783857449972</v>
+        <v>7.655783857450048</v>
       </c>
       <c r="L21" t="n">
-        <v>41.23928097380271</v>
+        <v>41.23928097380447</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009866548160616851</v>
+        <v>0.009866548160616035</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04431042686257862</v>
+        <v>0.0443104268626205</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.000325399999994147</v>
+        <v>0.0001893999999964535</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.9116106887382</v>
       </c>
       <c r="F22" t="n">
-        <v>29.98335420567308</v>
+        <v>29.98335420565469</v>
       </c>
       <c r="G22" t="n">
-        <v>105.0542798104451</v>
+        <v>105.0542798104459</v>
       </c>
       <c r="H22" t="n">
-        <v>13.86357248050146</v>
+        <v>13.86357248049089</v>
       </c>
       <c r="I22" t="n">
         <v>36.73913688060643</v>
@@ -1587,16 +1587,16 @@
         <v>28.53374266718802</v>
       </c>
       <c r="K22" t="n">
-        <v>36.7185556631715</v>
+        <v>36.71855566317014</v>
       </c>
       <c r="L22" t="n">
-        <v>28.75057685039697</v>
+        <v>28.75057685037734</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01036803507030971</v>
+        <v>0.01036803507032285</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05456203307171592</v>
+        <v>0.05456203306897098</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003422999999997955</v>
+        <v>0.0002527000000043245</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.005196424950550942</v>
       </c>
       <c r="F23" t="n">
-        <v>30.08223532595275</v>
+        <v>30.08223532595303</v>
       </c>
       <c r="G23" t="n">
-        <v>9.004581751010571</v>
+        <v>9.004581751011244</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214763488225966</v>
+        <v>6.214763488225323</v>
       </c>
       <c r="I23" t="n">
         <v>3.841879221367843</v>
@@ -1639,16 +1639,16 @@
         <v>35.13499912840096</v>
       </c>
       <c r="K23" t="n">
-        <v>3.844048446141753</v>
+        <v>3.84404844614174</v>
       </c>
       <c r="L23" t="n">
-        <v>34.9102189518277</v>
+        <v>34.9102189518272</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01027218152379398</v>
+        <v>0.01027218152379395</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1154267216319274</v>
+        <v>0.1154267216322095</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002972999999997228</v>
+        <v>0.0002116000000000895</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.009194991986513107</v>
       </c>
       <c r="F24" t="n">
-        <v>29.8256903726513</v>
+        <v>29.82569037265196</v>
       </c>
       <c r="G24" t="n">
-        <v>38.38090366400471</v>
+        <v>38.38090366400374</v>
       </c>
       <c r="H24" t="n">
-        <v>8.423198294257762</v>
+        <v>8.423198294258354</v>
       </c>
       <c r="I24" t="n">
         <v>11.9862826901246</v>
@@ -1691,16 +1691,16 @@
         <v>36.5366037130493</v>
       </c>
       <c r="K24" t="n">
-        <v>11.97400237318702</v>
+        <v>11.97400237318705</v>
       </c>
       <c r="L24" t="n">
-        <v>35.91429514060378</v>
+        <v>35.91429514060513</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01117681878955094</v>
+        <v>0.01117681878955028</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1545499061100531</v>
+        <v>0.1545499061097919</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0001925000000042587</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.9333011943647</v>
       </c>
       <c r="F25" t="n">
-        <v>29.85453152115805</v>
+        <v>29.85453152116812</v>
       </c>
       <c r="G25" t="n">
-        <v>92.54680126741258</v>
+        <v>92.54680126741228</v>
       </c>
       <c r="H25" t="n">
-        <v>14.39679589909214</v>
+        <v>14.39679589909821</v>
       </c>
       <c r="I25" t="n">
         <v>34.79974963322789</v>
@@ -1743,16 +1743,16 @@
         <v>32.20772710025805</v>
       </c>
       <c r="K25" t="n">
-        <v>34.79610458565115</v>
+        <v>34.7961045856518</v>
       </c>
       <c r="L25" t="n">
-        <v>32.23436670561846</v>
+        <v>32.23436670563068</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009581149887618533</v>
+        <v>0.009581149887611518</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02224652551016355</v>
+        <v>0.02224652551169673</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003172999999918602</v>
+        <v>0.0001882000000037465</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.8670787827351</v>
       </c>
       <c r="F26" t="n">
-        <v>29.83273731388061</v>
+        <v>29.83273731387915</v>
       </c>
       <c r="G26" t="n">
-        <v>171.1075175310219</v>
+        <v>171.1075175310231</v>
       </c>
       <c r="H26" t="n">
-        <v>10.59960817477511</v>
+        <v>10.59960817477479</v>
       </c>
       <c r="I26" t="n">
         <v>11.78642545097189</v>
@@ -1795,16 +1795,16 @@
         <v>14.11601099751434</v>
       </c>
       <c r="K26" t="n">
-        <v>11.82610938953537</v>
+        <v>11.8261093895351</v>
       </c>
       <c r="L26" t="n">
-        <v>14.96734692855106</v>
+        <v>14.96734692854989</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01144416524443695</v>
+        <v>0.01144416524443718</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3271574817038152</v>
+        <v>0.3271574817036466</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002972999999997228</v>
+        <v>0.0001996000000019649</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9771726910334</v>
       </c>
       <c r="F27" t="n">
-        <v>30.00744882247053</v>
+        <v>30.0074488224662</v>
       </c>
       <c r="G27" t="n">
-        <v>156.2462588831982</v>
+        <v>156.2462588832002</v>
       </c>
       <c r="H27" t="n">
-        <v>9.934262643638956</v>
+        <v>9.934262643637311</v>
       </c>
       <c r="I27" t="n">
         <v>19.88592121432799</v>
@@ -1847,16 +1847,16 @@
         <v>17.42150158735378</v>
       </c>
       <c r="K27" t="n">
-        <v>19.8839326326976</v>
+        <v>19.88393263269695</v>
       </c>
       <c r="L27" t="n">
-        <v>17.52461966845737</v>
+        <v>17.52461966845444</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01082685426871288</v>
+        <v>0.01082685426871644</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03304627100751109</v>
+        <v>0.03304627100775542</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002951000000024351</v>
+        <v>0.0002458000000018501</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.980400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>29.72291101657834</v>
+        <v>29.72291101657648</v>
       </c>
       <c r="G28" t="n">
-        <v>55.29496296496797</v>
+        <v>55.29496296496864</v>
       </c>
       <c r="H28" t="n">
-        <v>9.155878191547661</v>
+        <v>9.155878191546696</v>
       </c>
       <c r="I28" t="n">
         <v>16.99876366455218</v>
@@ -1899,16 +1899,16 @@
         <v>35.20863709983118</v>
       </c>
       <c r="K28" t="n">
-        <v>16.9888116187292</v>
+        <v>16.98881161872907</v>
       </c>
       <c r="L28" t="n">
-        <v>34.88433414776004</v>
+        <v>34.88433414775727</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009792214356620609</v>
+        <v>0.009792214356622019</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04197366246118798</v>
+        <v>0.04197366246159204</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003439000000042824</v>
+        <v>0.0002009000000029459</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.8714394584768</v>
       </c>
       <c r="F29" t="n">
-        <v>29.99207822234923</v>
+        <v>29.99207822234435</v>
       </c>
       <c r="G29" t="n">
-        <v>75.27640266060946</v>
+        <v>75.27640266060874</v>
       </c>
       <c r="H29" t="n">
-        <v>13.1056388083908</v>
+        <v>13.10563880838817</v>
       </c>
       <c r="I29" t="n">
         <v>27.47750858341173</v>
@@ -1951,16 +1951,16 @@
         <v>34.86118304053818</v>
       </c>
       <c r="K29" t="n">
-        <v>27.47400709807216</v>
+        <v>27.47400709807182</v>
       </c>
       <c r="L29" t="n">
-        <v>35.36066497784005</v>
+        <v>35.36066497783376</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01142959098050323</v>
+        <v>0.01142959098050732</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1232945043047981</v>
+        <v>0.1232945043040867</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.955366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92403835289192</v>
+        <v>29.92403835289819</v>
       </c>
       <c r="G30" t="n">
-        <v>130.3997151016323</v>
+        <v>130.3997151016289</v>
       </c>
       <c r="H30" t="n">
-        <v>9.684731176322924</v>
+        <v>9.684731176325426</v>
       </c>
       <c r="I30" t="n">
         <v>26.83056082492117</v>
@@ -2003,16 +2003,16 @@
         <v>22.06038522110382</v>
       </c>
       <c r="K30" t="n">
-        <v>26.81898166392182</v>
+        <v>26.81898166392245</v>
       </c>
       <c r="L30" t="n">
-        <v>22.15896892361573</v>
+        <v>22.15896892362127</v>
       </c>
       <c r="M30" t="n">
-        <v>0.009831614373494401</v>
+        <v>0.009831614373489913</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04378919747519915</v>
+        <v>0.04378919747490307</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003146000000100457</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.04174821263045001</v>
       </c>
       <c r="F31" t="n">
-        <v>29.81515078575726</v>
+        <v>29.81515078575812</v>
       </c>
       <c r="G31" t="n">
-        <v>157.0932434551359</v>
+        <v>157.0932434551345</v>
       </c>
       <c r="H31" t="n">
-        <v>6.566854047044041</v>
+        <v>6.566854047044141</v>
       </c>
       <c r="I31" t="n">
         <v>12.09819807108279</v>
@@ -2055,16 +2055,16 @@
         <v>20.83865222468982</v>
       </c>
       <c r="K31" t="n">
-        <v>12.05783752104035</v>
+        <v>12.05783752104046</v>
       </c>
       <c r="L31" t="n">
-        <v>20.38985060297128</v>
+        <v>20.38985060297213</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01046527716919245</v>
+        <v>0.01046527716919151</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1440319549405253</v>
+        <v>0.1440319549404329</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003676999999981945</v>
+        <v>0.0001926999999994905</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.1264052664776349</v>
       </c>
       <c r="F32" t="n">
-        <v>29.14692024071842</v>
+        <v>29.14692024072027</v>
       </c>
       <c r="G32" t="n">
-        <v>120.3313468712975</v>
+        <v>120.331346871296</v>
       </c>
       <c r="H32" t="n">
-        <v>7.292672337217514</v>
+        <v>7.292672337218126</v>
       </c>
       <c r="I32" t="n">
         <v>21.74625583611728</v>
@@ -2107,16 +2107,16 @@
         <v>25.20335661415189</v>
       </c>
       <c r="K32" t="n">
-        <v>21.67540535067993</v>
+        <v>21.67540535068012</v>
       </c>
       <c r="L32" t="n">
-        <v>23.79354077396005</v>
+        <v>23.79354077396189</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01131659136649746</v>
+        <v>0.01131659136649558</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3118435244504023</v>
+        <v>0.3118435244499899</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003020000000049095</v>
+        <v>0.0002497999999988565</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.04147572142515835</v>
       </c>
       <c r="F33" t="n">
-        <v>29.36399794803976</v>
+        <v>29.36399794804163</v>
       </c>
       <c r="G33" t="n">
-        <v>51.55865366544127</v>
+        <v>51.55865366544128</v>
       </c>
       <c r="H33" t="n">
-        <v>13.99836972260023</v>
+        <v>13.99836972260144</v>
       </c>
       <c r="I33" t="n">
         <v>21.14835897576047</v>
@@ -2159,16 +2159,16 @@
         <v>40.97552889614518</v>
       </c>
       <c r="K33" t="n">
-        <v>21.09706002114745</v>
+        <v>21.09706002114755</v>
       </c>
       <c r="L33" t="n">
-        <v>39.86313873178031</v>
+        <v>39.86313873178329</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0104577353623114</v>
+        <v>0.01045773536231002</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1458279547179769</v>
+        <v>0.1458279547176183</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003253000000000839</v>
+        <v>0.000206300000002102</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.03488944509893788</v>
       </c>
       <c r="F34" t="n">
-        <v>29.62005375986347</v>
+        <v>29.62005375986645</v>
       </c>
       <c r="G34" t="n">
-        <v>156.1319462860778</v>
+        <v>156.1319462860736</v>
       </c>
       <c r="H34" t="n">
-        <v>7.545571657344042</v>
+        <v>7.545571657344524</v>
       </c>
       <c r="I34" t="n">
         <v>14.58268277756131</v>
@@ -2211,16 +2211,16 @@
         <v>19.92527519173688</v>
       </c>
       <c r="K34" t="n">
-        <v>14.52900748849244</v>
+        <v>14.52900748849285</v>
       </c>
       <c r="L34" t="n">
-        <v>19.34189851454226</v>
+        <v>19.34189851454511</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01051915657938933</v>
+        <v>0.01051915657938579</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1249482359406372</v>
+        <v>0.1249482359403488</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.001473599999997077</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.03188535051081121</v>
       </c>
       <c r="F35" t="n">
-        <v>29.62047935185188</v>
+        <v>29.62047935185247</v>
       </c>
       <c r="G35" t="n">
-        <v>45.83141704830846</v>
+        <v>45.83141704830794</v>
       </c>
       <c r="H35" t="n">
-        <v>7.95574600956548</v>
+        <v>7.955746009565845</v>
       </c>
       <c r="I35" t="n">
         <v>13.45458804417072</v>
@@ -2263,16 +2263,16 @@
         <v>35.519141243874</v>
       </c>
       <c r="K35" t="n">
-        <v>13.42712250927868</v>
+        <v>13.42712250927872</v>
       </c>
       <c r="L35" t="n">
-        <v>34.60192737577788</v>
+        <v>34.60192737577887</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009726513882571914</v>
+        <v>0.009726513882571394</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2095300217047192</v>
+        <v>0.2095300217045443</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003177999999905978</v>
+        <v>0.0001972000000023399</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9756164899372</v>
       </c>
       <c r="F36" t="n">
-        <v>29.65164593038331</v>
+        <v>29.65164593038301</v>
       </c>
       <c r="G36" t="n">
-        <v>6.904472272815667</v>
+        <v>6.904472272815323</v>
       </c>
       <c r="H36" t="n">
-        <v>12.31033911316716</v>
+        <v>12.3103391131684</v>
       </c>
       <c r="I36" t="n">
         <v>4.025126671418751</v>
@@ -2315,16 +2315,16 @@
         <v>42.21249127823732</v>
       </c>
       <c r="K36" t="n">
-        <v>4.02420474498893</v>
+        <v>4.024204744988943</v>
       </c>
       <c r="L36" t="n">
-        <v>41.80362479300626</v>
+        <v>41.80362479300746</v>
       </c>
       <c r="M36" t="n">
-        <v>0.009710292906364054</v>
+        <v>0.009710292906363752</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02757693638686808</v>
+        <v>0.02757693638657835</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002940000000108967</v>
+        <v>0.0001945000000063146</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.1889736710087823</v>
       </c>
       <c r="F37" t="n">
-        <v>29.18905200403295</v>
+        <v>29.18905200403092</v>
       </c>
       <c r="G37" t="n">
-        <v>91.5266491128982</v>
+        <v>91.52664911289439</v>
       </c>
       <c r="H37" t="n">
-        <v>5.992221561839601</v>
+        <v>5.992221561839083</v>
       </c>
       <c r="I37" t="n">
         <v>17.81803300985169</v>
@@ -2367,16 +2367,16 @@
         <v>29.87298333979204</v>
       </c>
       <c r="K37" t="n">
-        <v>17.77014696537012</v>
+        <v>17.77014696536989</v>
       </c>
       <c r="L37" t="n">
-        <v>27.70269369002826</v>
+        <v>27.70269369002661</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0138872973883303</v>
+        <v>0.01388729738833213</v>
       </c>
       <c r="N37" t="n">
-        <v>0.6241363763000637</v>
+        <v>0.6241363763003109</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002979000000067344</v>
+        <v>0.000244500000000869</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.9323586734246</v>
       </c>
       <c r="F38" t="n">
-        <v>29.95248766508395</v>
+        <v>29.95248766508915</v>
       </c>
       <c r="G38" t="n">
-        <v>130.0355556648626</v>
+        <v>130.0355556648606</v>
       </c>
       <c r="H38" t="n">
-        <v>10.18000166017319</v>
+        <v>10.18000166017539</v>
       </c>
       <c r="I38" t="n">
         <v>28.31386058767408</v>
@@ -2419,16 +2419,16 @@
         <v>21.94213719690333</v>
       </c>
       <c r="K38" t="n">
-        <v>28.30089989843983</v>
+        <v>28.30089989844035</v>
       </c>
       <c r="L38" t="n">
-        <v>22.12228233261401</v>
+        <v>22.12228233261849</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01169352765225706</v>
+        <v>0.01169352765225291</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05394793802669327</v>
+        <v>0.05394793802641358</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003303000000016709</v>
+        <v>0.0002054999999998586</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.005446361233744566</v>
       </c>
       <c r="F39" t="n">
-        <v>29.90024432903725</v>
+        <v>29.90024432903832</v>
       </c>
       <c r="G39" t="n">
-        <v>170.1391781631959</v>
+        <v>170.1391781631964</v>
       </c>
       <c r="H39" t="n">
-        <v>8.562968361807279</v>
+        <v>8.562968361808069</v>
       </c>
       <c r="I39" t="n">
         <v>9.715176392221503</v>
@@ -2471,16 +2471,16 @@
         <v>17.50763382333646</v>
       </c>
       <c r="K39" t="n">
-        <v>9.699379417475454</v>
+        <v>9.699379417475646</v>
       </c>
       <c r="L39" t="n">
-        <v>17.40898032164274</v>
+        <v>17.40898032164286</v>
       </c>
       <c r="M39" t="n">
-        <v>0.009815634543504878</v>
+        <v>0.009815634543504054</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01839710662723207</v>
+        <v>0.01839710662695091</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002929999999992106</v>
+        <v>0.0002009000000029459</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.8991294351883</v>
       </c>
       <c r="F40" t="n">
-        <v>29.90768383517146</v>
+        <v>29.90768383516808</v>
       </c>
       <c r="G40" t="n">
-        <v>68.424053227367</v>
+        <v>68.42405322736619</v>
       </c>
       <c r="H40" t="n">
-        <v>13.52885035458011</v>
+        <v>13.52885035457829</v>
       </c>
       <c r="I40" t="n">
         <v>25.99804240757942</v>
@@ -2523,16 +2523,16 @@
         <v>36.76281015298541</v>
       </c>
       <c r="K40" t="n">
-        <v>25.98922406189775</v>
+        <v>25.98922406189752</v>
       </c>
       <c r="L40" t="n">
-        <v>37.00319330159611</v>
+        <v>37.00319330159162</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01128543986528852</v>
+        <v>0.0112854398652911</v>
       </c>
       <c r="N40" t="n">
-        <v>0.07384736128354041</v>
+        <v>0.07384736128307379</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002903000000031852</v>
+        <v>0.0002155999999970959</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.8595160433978</v>
       </c>
       <c r="F41" t="n">
-        <v>30.12114524331367</v>
+        <v>30.12114524329528</v>
       </c>
       <c r="G41" t="n">
-        <v>96.78147873300161</v>
+        <v>96.78147873300526</v>
       </c>
       <c r="H41" t="n">
-        <v>12.85624151599056</v>
+        <v>12.85624151598038</v>
       </c>
       <c r="I41" t="n">
         <v>32.60101457491432</v>
@@ -2575,16 +2575,16 @@
         <v>29.87603008831807</v>
       </c>
       <c r="K41" t="n">
-        <v>32.586082811756</v>
+        <v>32.58608281175486</v>
       </c>
       <c r="L41" t="n">
-        <v>30.4812237527169</v>
+        <v>30.48122375269523</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01220031348951179</v>
+        <v>0.01220031348952801</v>
       </c>
       <c r="N41" t="n">
-        <v>0.134914423353054</v>
+        <v>0.1349144233500147</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003291999999959216</v>
+        <v>0.0007467000000005442</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.06075476972112828</v>
       </c>
       <c r="F42" t="n">
-        <v>29.81068699195326</v>
+        <v>29.81068699195441</v>
       </c>
       <c r="G42" t="n">
-        <v>79.82332223236629</v>
+        <v>79.82332223236703</v>
       </c>
       <c r="H42" t="n">
-        <v>3.404464340040347</v>
+        <v>3.404464340040568</v>
       </c>
       <c r="I42" t="n">
         <v>10.64650715668175</v>
@@ -2627,16 +2627,16 @@
         <v>29.14275992229884</v>
       </c>
       <c r="K42" t="n">
-        <v>10.59759746469028</v>
+        <v>10.59759746469039</v>
       </c>
       <c r="L42" t="n">
-        <v>28.40055191408411</v>
+        <v>28.40055191408528</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01018698105570303</v>
+        <v>0.0101869810557022</v>
       </c>
       <c r="N42" t="n">
-        <v>0.3929992512836171</v>
+        <v>0.3929992512833892</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003003000000063594</v>
+        <v>0.000255499999994413</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.0270712323067284</v>
       </c>
       <c r="F43" t="n">
-        <v>29.74846952218988</v>
+        <v>29.74846952218934</v>
       </c>
       <c r="G43" t="n">
-        <v>49.26542260403258</v>
+        <v>49.26542260402902</v>
       </c>
       <c r="H43" t="n">
-        <v>3.172410306616514</v>
+        <v>3.172410306616609</v>
       </c>
       <c r="I43" t="n">
         <v>7.857823052148743</v>
@@ -2679,16 +2679,16 @@
         <v>30.6778780234648</v>
       </c>
       <c r="K43" t="n">
-        <v>7.823197709986575</v>
+        <v>7.823197709986512</v>
       </c>
       <c r="L43" t="n">
-        <v>29.89454765966516</v>
+        <v>29.89454765966487</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01012541029878492</v>
+        <v>0.01012541029878515</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4215810829577444</v>
+        <v>0.4215810829576189</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003102999999953227</v>
+        <v>0.0002379000000019005</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9503285846989</v>
       </c>
       <c r="F44" t="n">
-        <v>29.79383532312086</v>
+        <v>29.79383532310959</v>
       </c>
       <c r="G44" t="n">
-        <v>67.1199064709608</v>
+        <v>67.11990647096093</v>
       </c>
       <c r="H44" t="n">
-        <v>14.40088312348328</v>
+        <v>14.40088312347616</v>
       </c>
       <c r="I44" t="n">
         <v>26.73093662596029</v>
@@ -2731,16 +2731,16 @@
         <v>38.09464111448521</v>
       </c>
       <c r="K44" t="n">
-        <v>26.72414975543939</v>
+        <v>26.72414975543874</v>
       </c>
       <c r="L44" t="n">
-        <v>37.95016865053233</v>
+        <v>37.95016865051574</v>
       </c>
       <c r="M44" t="n">
-        <v>0.009925399725427057</v>
+        <v>0.009925399725435997</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01678438423820708</v>
+        <v>0.01678438424032721</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0005953000000005204</v>
+        <v>0.0002180000000038262</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9742600074655</v>
       </c>
       <c r="F45" t="n">
-        <v>29.51387633730324</v>
+        <v>29.51387633730296</v>
       </c>
       <c r="G45" t="n">
-        <v>20.20038337805413</v>
+        <v>20.20038337805385</v>
       </c>
       <c r="H45" t="n">
-        <v>10.42186179849149</v>
+        <v>10.42186179849152</v>
       </c>
       <c r="I45" t="n">
         <v>8.101473937905466</v>
@@ -2783,16 +2783,16 @@
         <v>39.34753971841504</v>
       </c>
       <c r="K45" t="n">
-        <v>8.066784197853783</v>
+        <v>8.066784197853771</v>
       </c>
       <c r="L45" t="n">
-        <v>39.0205974552793</v>
+        <v>39.02059745527906</v>
       </c>
       <c r="M45" t="n">
-        <v>0.009939806425194098</v>
+        <v>0.009939806425194172</v>
       </c>
       <c r="N45" t="n">
-        <v>0.06267601640052624</v>
+        <v>0.06267601640055671</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003182000000094831</v>
+        <v>0.0002065000000044392</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.07506147172559083</v>
       </c>
       <c r="F46" t="n">
-        <v>30.07013310958825</v>
+        <v>30.07013310958834</v>
       </c>
       <c r="G46" t="n">
-        <v>155.6568723559929</v>
+        <v>155.6568723559915</v>
       </c>
       <c r="H46" t="n">
-        <v>4.775115641242862</v>
+        <v>4.775115641242712</v>
       </c>
       <c r="I46" t="n">
         <v>9.169296382417432</v>
@@ -2835,16 +2835,16 @@
         <v>23.24401613042153</v>
       </c>
       <c r="K46" t="n">
-        <v>9.126768680085156</v>
+        <v>9.126768680085169</v>
       </c>
       <c r="L46" t="n">
-        <v>22.5181379616748</v>
+        <v>22.51813796167511</v>
       </c>
       <c r="M46" t="n">
-        <v>0.010693884789227</v>
+        <v>0.01069388478922677</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5012200855522222</v>
+        <v>0.5012200855520688</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003129000000114956</v>
+        <v>0.0002581999999975437</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.997362522715</v>
       </c>
       <c r="F47" t="n">
-        <v>29.83878693636144</v>
+        <v>29.83878693636171</v>
       </c>
       <c r="G47" t="n">
-        <v>178.1846085960713</v>
+        <v>178.1846085960716</v>
       </c>
       <c r="H47" t="n">
-        <v>9.653153536271711</v>
+        <v>9.6531535362722</v>
       </c>
       <c r="I47" t="n">
         <v>5.639587406824457</v>
@@ -2887,16 +2887,16 @@
         <v>15.9542760494317</v>
       </c>
       <c r="K47" t="n">
-        <v>5.607596301661609</v>
+        <v>5.607596301661623</v>
       </c>
       <c r="L47" t="n">
-        <v>15.71968150739238</v>
+        <v>15.71968150739206</v>
       </c>
       <c r="M47" t="n">
-        <v>0.009529510445186015</v>
+        <v>0.009529510445185971</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05184163408021765</v>
+        <v>0.05184163408037744</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003401000000025078</v>
+        <v>0.0002126000000046702</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.941512416013</v>
       </c>
       <c r="F48" t="n">
-        <v>30.06253611949676</v>
+        <v>30.06253611949283</v>
       </c>
       <c r="G48" t="n">
-        <v>140.2475114813437</v>
+        <v>140.2475114813464</v>
       </c>
       <c r="H48" t="n">
-        <v>10.60192309209505</v>
+        <v>10.60192309209349</v>
       </c>
       <c r="I48" t="n">
         <v>27.70526304933168</v>
@@ -2939,16 +2939,16 @@
         <v>19.73114991147893</v>
       </c>
       <c r="K48" t="n">
-        <v>27.70244678154709</v>
+        <v>27.70244678154672</v>
       </c>
       <c r="L48" t="n">
-        <v>19.95210324524308</v>
+        <v>19.95210324523977</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01075038798214594</v>
+        <v>0.01075038798214857</v>
       </c>
       <c r="N48" t="n">
-        <v>0.04421186992566552</v>
+        <v>0.04421186992578049</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003380999999933465</v>
+        <v>0.0002113999999977523</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.0848009475766186</v>
       </c>
       <c r="F49" t="n">
-        <v>29.7906821598971</v>
+        <v>29.79068215989648</v>
       </c>
       <c r="G49" t="n">
-        <v>21.05910178621162</v>
+        <v>21.05910178621168</v>
       </c>
       <c r="H49" t="n">
-        <v>13.45922078271661</v>
+        <v>13.45922078271601</v>
       </c>
       <c r="I49" t="n">
         <v>9.471004277713373</v>
@@ -2991,16 +2991,16 @@
         <v>44.51408920100896</v>
       </c>
       <c r="K49" t="n">
-        <v>9.431990758852439</v>
+        <v>9.431990758852388</v>
       </c>
       <c r="L49" t="n">
-        <v>42.8255937528191</v>
+        <v>42.82559375281778</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01056472421940102</v>
+        <v>0.01056472421940155</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2988029128411785</v>
+        <v>0.2988029128413449</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002982000000031348</v>
+        <v>0.0002346000000059689</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.09936313199284796</v>
       </c>
       <c r="F50" t="n">
-        <v>30.56448764771232</v>
+        <v>30.56448764771216</v>
       </c>
       <c r="G50" t="n">
-        <v>2.899011470430047</v>
+        <v>2.899011470430035</v>
       </c>
       <c r="H50" t="n">
-        <v>11.33923129872257</v>
+        <v>11.33923129872309</v>
       </c>
       <c r="I50" t="n">
         <v>2.710210794565153</v>
@@ -3043,16 +3043,16 @@
         <v>43.84652687772623</v>
       </c>
       <c r="K50" t="n">
-        <v>2.635003064083457</v>
+        <v>2.63500306408347</v>
       </c>
       <c r="L50" t="n">
-        <v>41.58170841339169</v>
+        <v>41.58170841339216</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01138157657590933</v>
+        <v>0.01138157657590934</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5417496367876864</v>
+        <v>0.5417496367875678</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003329999999976962</v>
+        <v>0.0002131000000034078</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.1043159078206541</v>
       </c>
       <c r="F51" t="n">
-        <v>29.51840533127179</v>
+        <v>29.51840533127271</v>
       </c>
       <c r="G51" t="n">
-        <v>59.40244760735005</v>
+        <v>59.4024476073467</v>
       </c>
       <c r="H51" t="n">
-        <v>5.214600058568184</v>
+        <v>5.214600058568738</v>
       </c>
       <c r="I51" t="n">
         <v>12.45544517658499</v>
@@ -3095,16 +3095,16 @@
         <v>32.33427654125745</v>
       </c>
       <c r="K51" t="n">
-        <v>12.39158098624127</v>
+        <v>12.39158098624134</v>
       </c>
       <c r="L51" t="n">
-        <v>30.80473329937499</v>
+        <v>30.80473329937662</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01019468621576384</v>
+        <v>0.01019468621576298</v>
       </c>
       <c r="N51" t="n">
-        <v>0.5399340165001899</v>
+        <v>0.5399340164997755</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003159000000039214</v>
+        <v>0.0002666000000033364</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.1560352108683698</v>
       </c>
       <c r="F52" t="n">
-        <v>29.34318420163708</v>
+        <v>29.34318420163763</v>
       </c>
       <c r="G52" t="n">
-        <v>97.97328735037851</v>
+        <v>97.97328735037938</v>
       </c>
       <c r="H52" t="n">
-        <v>5.292907507827495</v>
+        <v>5.292907507827641</v>
       </c>
       <c r="I52" t="n">
         <v>16.32338387411448</v>
@@ -3147,16 +3147,16 @@
         <v>28.65547033479784</v>
       </c>
       <c r="K52" t="n">
-        <v>16.26455101718384</v>
+        <v>16.2645510171839</v>
       </c>
       <c r="L52" t="n">
-        <v>26.9231884463138</v>
+        <v>26.92318844631426</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01214129493947209</v>
+        <v>0.01214129493947164</v>
       </c>
       <c r="N52" t="n">
-        <v>0.532606521834549</v>
+        <v>0.5326065218344658</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0002464000000017563</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.02905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>29.67347843325203</v>
+        <v>29.67347843325386</v>
       </c>
       <c r="G53" t="n">
-        <v>123.7423322000219</v>
+        <v>123.7423322000187</v>
       </c>
       <c r="H53" t="n">
-        <v>3.499982004795276</v>
+        <v>3.499982004795586</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3199,16 +3199,16 @@
         <v>25.60870945161991</v>
       </c>
       <c r="K53" t="n">
-        <v>10.71405212888671</v>
+        <v>10.71405212888693</v>
       </c>
       <c r="L53" t="n">
-        <v>25.16285476118066</v>
+        <v>25.16285476118252</v>
       </c>
       <c r="M53" t="n">
-        <v>0.00991854312877098</v>
+        <v>0.009918543128769487</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1207126720716973</v>
+        <v>0.1207126720712204</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003201000000103704</v>
+        <v>0.0002063999999961652</v>
       </c>
     </row>
     <row r="54">
@@ -3236,10 +3236,10 @@
         <v>359.9480524159385</v>
       </c>
       <c r="F54" t="n">
-        <v>29.87009825112673</v>
+        <v>29.87009825112723</v>
       </c>
       <c r="G54" t="n">
-        <v>141.9256531249495</v>
+        <v>141.9256531249474</v>
       </c>
       <c r="H54" t="n">
         <v>2.959841190084147</v>
@@ -3251,16 +3251,16 @@
         <v>24.22727636912567</v>
       </c>
       <c r="K54" t="n">
-        <v>7.76188549704655</v>
+        <v>7.761885497046602</v>
       </c>
       <c r="L54" t="n">
-        <v>24.68385519056709</v>
+        <v>24.68385519056767</v>
       </c>
       <c r="M54" t="n">
-        <v>0.009419515373978615</v>
+        <v>0.009419515373978241</v>
       </c>
       <c r="N54" t="n">
-        <v>0.4564270712529025</v>
+        <v>0.4564270712530124</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0001995000000007963</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.979413513315</v>
       </c>
       <c r="F55" t="n">
-        <v>29.79144284223165</v>
+        <v>29.79144284222924</v>
       </c>
       <c r="G55" t="n">
-        <v>152.2014244366606</v>
+        <v>152.2014244366618</v>
       </c>
       <c r="H55" t="n">
-        <v>9.625601533094224</v>
+        <v>9.625601533093322</v>
       </c>
       <c r="I55" t="n">
         <v>21.12954030412948</v>
@@ -3303,16 +3303,16 @@
         <v>18.25980426170813</v>
       </c>
       <c r="K55" t="n">
-        <v>21.10965714442472</v>
+        <v>21.10965714442439</v>
       </c>
       <c r="L55" t="n">
-        <v>18.17721705855856</v>
+        <v>18.17721705855686</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01133858321054305</v>
+        <v>0.01133858321054533</v>
       </c>
       <c r="N55" t="n">
-        <v>0.04529090436439114</v>
+        <v>0.04529090436483436</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003266999999880227</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.185221074461286</v>
       </c>
       <c r="F56" t="n">
-        <v>29.09441598982218</v>
+        <v>29.09441598981725</v>
       </c>
       <c r="G56" t="n">
-        <v>82.62891773737512</v>
+        <v>82.62891773738239</v>
       </c>
       <c r="H56" t="n">
-        <v>6.499349278702792</v>
+        <v>6.499349278700813</v>
       </c>
       <c r="I56" t="n">
         <v>18.20214824947928</v>
@@ -3355,16 +3355,16 @@
         <v>31.1326825899254</v>
       </c>
       <c r="K56" t="n">
-        <v>18.13374389858729</v>
+        <v>18.13374389858689</v>
       </c>
       <c r="L56" t="n">
-        <v>28.91461683002726</v>
+        <v>28.91461683002065</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01225244778809451</v>
+        <v>0.01225244778809925</v>
       </c>
       <c r="N56" t="n">
-        <v>0.6027460857680919</v>
+        <v>0.6027460857693995</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002975999999961232</v>
+        <v>0.0002513000000021748</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.1623731114634006</v>
       </c>
       <c r="F57" t="n">
-        <v>30.03269982957268</v>
+        <v>30.03269982957291</v>
       </c>
       <c r="G57" t="n">
-        <v>17.873999258713</v>
+        <v>17.87399925871286</v>
       </c>
       <c r="H57" t="n">
-        <v>12.46772979484776</v>
+        <v>12.46772979484816</v>
       </c>
       <c r="I57" t="n">
         <v>8.034645537807528</v>
@@ -3407,16 +3407,16 @@
         <v>44.66670492114711</v>
       </c>
       <c r="K57" t="n">
-        <v>7.990923145488441</v>
+        <v>7.990923145488454</v>
       </c>
       <c r="L57" t="n">
-        <v>42.06380348379905</v>
+        <v>42.06380348379975</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01217417893710135</v>
+        <v>0.01217417893710115</v>
       </c>
       <c r="N57" t="n">
-        <v>0.5097500452054577</v>
+        <v>0.5097500452053539</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003147000000041089</v>
+        <v>0.0002089999999981274</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.1037643175502605</v>
       </c>
       <c r="F58" t="n">
-        <v>30.41247112399175</v>
+        <v>30.41247112399176</v>
       </c>
       <c r="G58" t="n">
-        <v>178.6862724959808</v>
+        <v>178.6862724959806</v>
       </c>
       <c r="H58" t="n">
-        <v>8.310923816118295</v>
+        <v>8.310923816118089</v>
       </c>
       <c r="I58" t="n">
         <v>4.777926150988158</v>
@@ -3459,16 +3459,16 @@
         <v>19.05908889727014</v>
       </c>
       <c r="K58" t="n">
-        <v>4.663778310242098</v>
+        <v>4.663778310242122</v>
       </c>
       <c r="L58" t="n">
-        <v>17.88478842148639</v>
+        <v>17.88478842148665</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0120567241201058</v>
+        <v>0.01205672412010543</v>
       </c>
       <c r="N58" t="n">
-        <v>0.6373053972909285</v>
+        <v>0.6373053972908195</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003267000000022335</v>
+        <v>0.0002034999999978027</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.0131052157346955</v>
       </c>
       <c r="F59" t="n">
-        <v>29.6153469930205</v>
+        <v>29.61534699302007</v>
       </c>
       <c r="G59" t="n">
-        <v>15.31161097254456</v>
+        <v>15.31161097254389</v>
       </c>
       <c r="H59" t="n">
-        <v>5.700376757179947</v>
+        <v>5.70037675718003</v>
       </c>
       <c r="I59" t="n">
         <v>5.111782853534632</v>
@@ -3511,16 +3511,16 @@
         <v>34.17956701829482</v>
       </c>
       <c r="K59" t="n">
-        <v>5.074885779048504</v>
+        <v>5.074885779048466</v>
       </c>
       <c r="L59" t="n">
-        <v>33.72884593674571</v>
+        <v>33.72884593674539</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01107666541937363</v>
+        <v>0.01107666541937386</v>
       </c>
       <c r="N59" t="n">
-        <v>0.06982035671865543</v>
+        <v>0.06982035671866609</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003048000000092088</v>
+        <v>0.0002009000000029459</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.07601861461744777</v>
       </c>
       <c r="F60" t="n">
-        <v>29.25525670212491</v>
+        <v>29.25525670211773</v>
       </c>
       <c r="G60" t="n">
-        <v>67.2922935191944</v>
+        <v>67.29229351919774</v>
       </c>
       <c r="H60" t="n">
-        <v>7.875116633838174</v>
+        <v>7.875116633834989</v>
       </c>
       <c r="I60" t="n">
         <v>18.21010211320113</v>
@@ -3563,16 +3563,16 @@
         <v>33.19847585386613</v>
       </c>
       <c r="K60" t="n">
-        <v>18.1471700657829</v>
+        <v>18.14717006578234</v>
       </c>
       <c r="L60" t="n">
-        <v>31.87224413042811</v>
+        <v>31.87224413041838</v>
       </c>
       <c r="M60" t="n">
-        <v>0.01004262383405738</v>
+        <v>0.01004262383406243</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2818922487898811</v>
+        <v>0.2818922487915411</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003147999999981721</v>
+        <v>0.0003299999999981651</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.1669283521394677</v>
       </c>
       <c r="F61" t="n">
-        <v>30.17720777565376</v>
+        <v>30.17720777565367</v>
       </c>
       <c r="G61" t="n">
-        <v>172.5615995077912</v>
+        <v>172.5615995077919</v>
       </c>
       <c r="H61" t="n">
-        <v>6.559737055802485</v>
+        <v>6.559737055802741</v>
       </c>
       <c r="I61" t="n">
         <v>6.732400721077228</v>
@@ -3615,16 +3615,16 @@
         <v>21.82727400816668</v>
       </c>
       <c r="K61" t="n">
-        <v>6.576187988344871</v>
+        <v>6.576187988344846</v>
       </c>
       <c r="L61" t="n">
-        <v>19.88611773778317</v>
+        <v>19.88611773778276</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01370473608552321</v>
+        <v>0.0137047360855237</v>
       </c>
       <c r="N61" t="n">
-        <v>1.19375791799897</v>
+        <v>1.19375791799915</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0005945000000053824</v>
+        <v>0.0002222000000031699</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.0921770993213077</v>
       </c>
       <c r="F62" t="n">
-        <v>29.85144877161813</v>
+        <v>29.85144877161852</v>
       </c>
       <c r="G62" t="n">
-        <v>60.9172161847798</v>
+        <v>60.91721618478405</v>
       </c>
       <c r="H62" t="n">
-        <v>4.580625916819945</v>
+        <v>4.580625916819764</v>
       </c>
       <c r="I62" t="n">
         <v>11.41155827121607</v>
@@ -3667,16 +3667,16 @@
         <v>31.69457505163562</v>
       </c>
       <c r="K62" t="n">
-        <v>11.38510195553046</v>
+        <v>11.38510195553052</v>
       </c>
       <c r="L62" t="n">
-        <v>30.50717268887679</v>
+        <v>30.50717268887671</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01179326705439511</v>
+        <v>0.01179326705439506</v>
       </c>
       <c r="N62" t="n">
-        <v>0.554037387353508</v>
+        <v>0.5540373873536902</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.00032039999999256</v>
+        <v>0.0002008000000017773</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.04314955515597899</v>
       </c>
       <c r="F63" t="n">
-        <v>29.85256584466688</v>
+        <v>29.85256584466732</v>
       </c>
       <c r="G63" t="n">
-        <v>150.8747678521069</v>
+        <v>150.8747678521068</v>
       </c>
       <c r="H63" t="n">
-        <v>5.356295035984131</v>
+        <v>5.356295035984265</v>
       </c>
       <c r="I63" t="n">
         <v>11.32528329067774</v>
@@ -3719,16 +3719,16 @@
         <v>22.53166860081129</v>
       </c>
       <c r="K63" t="n">
-        <v>11.3025055905942</v>
+        <v>11.30250559059426</v>
       </c>
       <c r="L63" t="n">
-        <v>22.0489696396029</v>
+        <v>22.04896963960321</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01059867361002692</v>
+        <v>0.01059867361002649</v>
       </c>
       <c r="N63" t="n">
-        <v>0.190140070823225</v>
+        <v>0.1901400708232516</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003080000000039718</v>
+        <v>0.0001976999999939721</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.001232542630374539</v>
       </c>
       <c r="F64" t="n">
-        <v>29.97293042923539</v>
+        <v>29.97293042923511</v>
       </c>
       <c r="G64" t="n">
-        <v>6.108922628138088</v>
+        <v>6.108922628137707</v>
       </c>
       <c r="H64" t="n">
-        <v>8.548283115895122</v>
+        <v>8.548283115896218</v>
       </c>
       <c r="I64" t="n">
         <v>3.462135242408604</v>
@@ -3771,16 +3771,16 @@
         <v>38.03641865270881</v>
       </c>
       <c r="K64" t="n">
-        <v>3.447862136553956</v>
+        <v>3.447862136553968</v>
       </c>
       <c r="L64" t="n">
-        <v>37.62435920487244</v>
+        <v>37.62435920487348</v>
       </c>
       <c r="M64" t="n">
-        <v>0.00903106343520654</v>
+        <v>0.009031063435206274</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1129333390936662</v>
+        <v>0.1129333390933026</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003117999999915355</v>
+        <v>0.000198100000005752</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.2138978653518085</v>
       </c>
       <c r="F65" t="n">
-        <v>28.94686002241647</v>
+        <v>28.94686002241855</v>
       </c>
       <c r="G65" t="n">
-        <v>107.2870204566556</v>
+        <v>107.2870204566579</v>
       </c>
       <c r="H65" t="n">
-        <v>7.163793673912313</v>
+        <v>7.163793673913032</v>
       </c>
       <c r="I65" t="n">
         <v>21.83479548908128</v>
@@ -3823,16 +3823,16 @@
         <v>27.80920715278775</v>
       </c>
       <c r="K65" t="n">
-        <v>21.7524616030391</v>
+        <v>21.75246160303937</v>
       </c>
       <c r="L65" t="n">
-        <v>25.59853526134625</v>
+        <v>25.5985352613479</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01384236838885492</v>
+        <v>0.0138423683888527</v>
       </c>
       <c r="N65" t="n">
-        <v>0.5330960185124026</v>
+        <v>0.5330960185120597</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003225999999898477</v>
+        <v>0.0003700999999978194</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.8899677060768</v>
       </c>
       <c r="F66" t="n">
-        <v>29.95590215343931</v>
+        <v>29.95590215343478</v>
       </c>
       <c r="G66" t="n">
-        <v>66.148324492527</v>
+        <v>66.14832449252849</v>
       </c>
       <c r="H66" t="n">
-        <v>10.192197848919</v>
+        <v>10.19219784891663</v>
       </c>
       <c r="I66" t="n">
         <v>20.8613366628729</v>
@@ -3875,16 +3875,16 @@
         <v>33.97314475533167</v>
       </c>
       <c r="K66" t="n">
-        <v>20.85428675531367</v>
+        <v>20.8542867553134</v>
       </c>
       <c r="L66" t="n">
-        <v>34.54850555050516</v>
+        <v>34.5485055504987</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01249624446121662</v>
+        <v>0.01249624446122119</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1809013981103745</v>
+        <v>0.1809013981094876</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003138000000006969</v>
+        <v>0.0002440999999961946</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.08336648231326493</v>
       </c>
       <c r="F67" t="n">
-        <v>29.93416139076914</v>
+        <v>29.93416139076894</v>
       </c>
       <c r="G67" t="n">
-        <v>48.95157768226001</v>
+        <v>48.95157768228099</v>
       </c>
       <c r="H67" t="n">
-        <v>2.602747630375342</v>
+        <v>2.602747630374224</v>
       </c>
       <c r="I67" t="n">
         <v>6.987251659285303</v>
@@ -3927,16 +3927,16 @@
         <v>30.74521447866422</v>
       </c>
       <c r="K67" t="n">
-        <v>6.929685756159322</v>
+        <v>6.92968575615927</v>
       </c>
       <c r="L67" t="n">
-        <v>29.58494500354969</v>
+        <v>29.58494500354772</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01051640347511165</v>
+        <v>0.0105164034751125</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8902603273105926</v>
+        <v>0.8902603273120664</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002902999999889744</v>
+        <v>0.0002003999999971029</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.8584385635936</v>
       </c>
       <c r="F68" t="n">
-        <v>29.13155701889764</v>
+        <v>29.13155701889787</v>
       </c>
       <c r="G68" t="n">
-        <v>22.76074621089596</v>
+        <v>22.76074621089534</v>
       </c>
       <c r="H68" t="n">
-        <v>5.889735855853496</v>
+        <v>5.889735855853842</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3979,16 +3979,16 @@
         <v>32.48901841149885</v>
       </c>
       <c r="K68" t="n">
-        <v>6.618605220736641</v>
+        <v>6.618605220736653</v>
       </c>
       <c r="L68" t="n">
-        <v>33.25404224938954</v>
+        <v>33.2540422493902</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01168690940292147</v>
+        <v>0.0116869094029211</v>
       </c>
       <c r="N68" t="n">
-        <v>0.8625349841275808</v>
+        <v>0.8625349841278109</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003418000000010579</v>
+        <v>0.0001954000000026213</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.887147784778</v>
       </c>
       <c r="F69" t="n">
-        <v>30.08553095519688</v>
+        <v>30.0855309552007</v>
       </c>
       <c r="G69" t="n">
-        <v>96.95297973376884</v>
+        <v>96.95297973376854</v>
       </c>
       <c r="H69" t="n">
-        <v>13.53403781569462</v>
+        <v>13.53403781569679</v>
       </c>
       <c r="I69" t="n">
         <v>34.07554230545824</v>
@@ -4031,16 +4031,16 @@
         <v>30.29280265083704</v>
       </c>
       <c r="K69" t="n">
-        <v>34.04716223237513</v>
+        <v>34.0471622323754</v>
       </c>
       <c r="L69" t="n">
-        <v>30.77937049792627</v>
+        <v>30.77937049793069</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01142132364637471</v>
+        <v>0.01142132364637161</v>
       </c>
       <c r="N69" t="n">
-        <v>0.1091637693363107</v>
+        <v>0.1091637693369057</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003043999999903235</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.0944476364371679</v>
       </c>
       <c r="F70" t="n">
-        <v>29.88958408930633</v>
+        <v>29.88958408930648</v>
       </c>
       <c r="G70" t="n">
-        <v>62.38792110137289</v>
+        <v>62.38792110136625</v>
       </c>
       <c r="H70" t="n">
-        <v>2.607937789558707</v>
+        <v>2.607937789558954</v>
       </c>
       <c r="I70" t="n">
         <v>7.978481920009612</v>
@@ -4083,16 +4083,16 @@
         <v>30.5774947170148</v>
       </c>
       <c r="K70" t="n">
-        <v>7.913851698084111</v>
+        <v>7.913851698084136</v>
       </c>
       <c r="L70" t="n">
-        <v>28.99985093988203</v>
+        <v>28.99985093988264</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01122159158098813</v>
+        <v>0.01122159158098781</v>
       </c>
       <c r="N70" t="n">
-        <v>1.142621984107864</v>
+        <v>1.142621984107482</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003536000000110562</v>
+        <v>0.0002016000000040208</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.9084492901451</v>
       </c>
       <c r="F71" t="n">
-        <v>29.51266417770318</v>
+        <v>29.51266417770413</v>
       </c>
       <c r="G71" t="n">
-        <v>52.12216704022727</v>
+        <v>52.12216704022659</v>
       </c>
       <c r="H71" t="n">
-        <v>12.90460989927951</v>
+        <v>12.90460989928031</v>
       </c>
       <c r="I71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="J71" t="n">
         <v>38.87559435981993</v>
       </c>
       <c r="K71" t="n">
-        <v>20.13381249729876</v>
+        <v>20.1338124972988</v>
       </c>
       <c r="L71" t="n">
-        <v>38.77346562868212</v>
+        <v>38.77346562868394</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01150612360820007</v>
+        <v>0.01150612360819897</v>
       </c>
       <c r="N71" t="n">
-        <v>0.08097915535142644</v>
+        <v>0.08097915535150965</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.001021699999995462</v>
+        <v>0.0002436999999986256</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.9149002591698</v>
       </c>
       <c r="F72" t="n">
-        <v>30.14467226132892</v>
+        <v>30.1446722613311</v>
       </c>
       <c r="G72" t="n">
-        <v>166.0486165013984</v>
+        <v>166.0486165013975</v>
       </c>
       <c r="H72" t="n">
-        <v>13.31120013101698</v>
+        <v>13.311200131018</v>
       </c>
       <c r="I72" t="n">
         <v>22.50110910593897</v>
@@ -4187,16 +4187,16 @@
         <v>12.59736678041878</v>
       </c>
       <c r="K72" t="n">
-        <v>22.48171288496069</v>
+        <v>22.4817128849611</v>
       </c>
       <c r="L72" t="n">
-        <v>13.01517454006695</v>
+        <v>13.01517454006811</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01110719844156492</v>
+        <v>0.01110719844156393</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1118838433318254</v>
+        <v>0.1118838433317045</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.000210000000002708</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.04306031497297426</v>
       </c>
       <c r="F73" t="n">
-        <v>29.78692192361646</v>
+        <v>29.78692192361794</v>
       </c>
       <c r="G73" t="n">
-        <v>35.13135416133009</v>
+        <v>35.13135416132833</v>
       </c>
       <c r="H73" t="n">
-        <v>6.988791018143345</v>
+        <v>6.988791018144446</v>
       </c>
       <c r="I73" t="n">
         <v>10.06238009975766</v>
@@ -4239,16 +4239,16 @@
         <v>35.58374545764129</v>
       </c>
       <c r="K73" t="n">
-        <v>10.03038511169599</v>
+        <v>10.03038511169611</v>
       </c>
       <c r="L73" t="n">
-        <v>34.55755807336226</v>
+        <v>34.55755807336502</v>
       </c>
       <c r="M73" t="n">
-        <v>0.01001370541783107</v>
+        <v>0.01001370541782974</v>
       </c>
       <c r="N73" t="n">
-        <v>0.312108238989293</v>
+        <v>0.3121082389887235</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003037000000034595</v>
+        <v>0.000210799999997846</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9681454500934</v>
       </c>
       <c r="F74" t="n">
-        <v>29.60109957962133</v>
+        <v>29.60109957962012</v>
       </c>
       <c r="G74" t="n">
-        <v>18.80223985397709</v>
+        <v>18.80223985397696</v>
       </c>
       <c r="H74" t="n">
-        <v>11.40619304536351</v>
+        <v>11.40619304536262</v>
       </c>
       <c r="I74" t="n">
         <v>7.949461920862264</v>
@@ -4291,16 +4291,16 @@
         <v>40.47776009458681</v>
       </c>
       <c r="K74" t="n">
-        <v>7.932530998837366</v>
+        <v>7.932530998837277</v>
       </c>
       <c r="L74" t="n">
-        <v>40.32764159220374</v>
+        <v>40.3276415922015</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01026779424023017</v>
+        <v>0.01026779424023114</v>
       </c>
       <c r="N74" t="n">
-        <v>0.06395470882757279</v>
+        <v>0.06395470882748949</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003078000000016345</v>
+        <v>0.0001965000000012651</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.942318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>30.12360806742063</v>
+        <v>30.12360806742254</v>
       </c>
       <c r="G75" t="n">
-        <v>114.4972905229712</v>
+        <v>114.497290522969</v>
       </c>
       <c r="H75" t="n">
-        <v>9.542821292113818</v>
+        <v>9.542821292114597</v>
       </c>
       <c r="I75" t="n">
         <v>26.91838834236455</v>
@@ -4343,16 +4343,16 @@
         <v>25.19117466107735</v>
       </c>
       <c r="K75" t="n">
-        <v>26.92885463562511</v>
+        <v>26.92885463562522</v>
       </c>
       <c r="L75" t="n">
-        <v>25.52679201433159</v>
+        <v>25.52679201433376</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00939991977020488</v>
+        <v>0.009399919770203642</v>
       </c>
       <c r="N75" t="n">
-        <v>0.07546116360398653</v>
+        <v>0.07546116360441858</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003358999999960588</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.9391654506192</v>
       </c>
       <c r="F76" t="n">
-        <v>29.62614694606234</v>
+        <v>29.6261469460618</v>
       </c>
       <c r="G76" t="n">
-        <v>35.87452468110403</v>
+        <v>35.87452468110433</v>
       </c>
       <c r="H76" t="n">
-        <v>12.52703209509972</v>
+        <v>12.52703209509922</v>
       </c>
       <c r="I76" t="n">
         <v>14.26388074475133</v>
@@ -4395,16 +4395,16 @@
         <v>40.62758235916512</v>
       </c>
       <c r="K76" t="n">
-        <v>14.24319931762693</v>
+        <v>14.24319931762689</v>
       </c>
       <c r="L76" t="n">
-        <v>40.43350813546527</v>
+        <v>40.43350813546417</v>
       </c>
       <c r="M76" t="n">
-        <v>0.009468117162274057</v>
+        <v>0.009468117162274577</v>
       </c>
       <c r="N76" t="n">
-        <v>0.04882601871696129</v>
+        <v>0.0488260187169056</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0002397999999956824</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.07095021339761047</v>
       </c>
       <c r="F77" t="n">
-        <v>29.87106837773905</v>
+        <v>29.87106837773877</v>
       </c>
       <c r="G77" t="n">
-        <v>112.1673803169626</v>
+        <v>112.1673803169577</v>
       </c>
       <c r="H77" t="n">
-        <v>3.788941852901699</v>
+        <v>3.788941852901575</v>
       </c>
       <c r="I77" t="n">
         <v>12.00268982686304</v>
@@ -4447,16 +4447,16 @@
         <v>26.99609284033786</v>
       </c>
       <c r="K77" t="n">
-        <v>11.97766054477588</v>
+        <v>11.97766054477584</v>
       </c>
       <c r="L77" t="n">
-        <v>26.10753770564747</v>
+        <v>26.10753770564761</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01047925706229056</v>
+        <v>0.01047925706229074</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3068012287602087</v>
+        <v>0.3068012287601665</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003119999999938727</v>
+        <v>0.0002076999999971463</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.9059698689281</v>
       </c>
       <c r="F78" t="n">
-        <v>29.75540536329116</v>
+        <v>29.75540536328516</v>
       </c>
       <c r="G78" t="n">
-        <v>55.02526154008259</v>
+        <v>55.02526154008165</v>
       </c>
       <c r="H78" t="n">
-        <v>13.06835055233842</v>
+        <v>13.06835055233508</v>
       </c>
       <c r="I78" t="n">
         <v>21.14464081260298</v>
@@ -4499,16 +4499,16 @@
         <v>38.60175053192231</v>
       </c>
       <c r="K78" t="n">
-        <v>21.14256206776925</v>
+        <v>21.14256206776885</v>
       </c>
       <c r="L78" t="n">
-        <v>38.73563167097709</v>
+        <v>38.73563167096832</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01029019363937241</v>
+        <v>0.01029019363937736</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0762741388957211</v>
+        <v>0.07627413889481495</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003399000000001706</v>
+        <v>0.0002059999999985962</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9775555147925</v>
       </c>
       <c r="F79" t="n">
-        <v>29.86025082964035</v>
+        <v>29.86025082964176</v>
       </c>
       <c r="G79" t="n">
-        <v>165.1257956181675</v>
+        <v>165.125795618167</v>
       </c>
       <c r="H79" t="n">
-        <v>10.55341596570781</v>
+        <v>10.55341596570844</v>
       </c>
       <c r="I79" t="n">
         <v>16.40253997268591</v>
@@ -4551,16 +4551,16 @@
         <v>15.58284333545443</v>
       </c>
       <c r="K79" t="n">
-        <v>16.37766007057458</v>
+        <v>16.37766007057486</v>
       </c>
       <c r="L79" t="n">
-        <v>15.63869459612279</v>
+        <v>15.63869459612354</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01013101131277307</v>
+        <v>0.01013101131277191</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05574972616770772</v>
+        <v>0.05574972616757981</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003131999999936852</v>
+        <v>0.0001960999999965907</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9877953862775</v>
       </c>
       <c r="F80" t="n">
-        <v>29.86904494756081</v>
+        <v>29.86904494756138</v>
       </c>
       <c r="G80" t="n">
-        <v>8.807812825446582</v>
+        <v>8.80781282544695</v>
       </c>
       <c r="H80" t="n">
-        <v>10.7453270787305</v>
+        <v>10.74532707873035</v>
       </c>
       <c r="I80" t="n">
         <v>4.491261423189937</v>
@@ -4603,16 +4603,16 @@
         <v>40.76138943515837</v>
       </c>
       <c r="K80" t="n">
-        <v>4.486919140808594</v>
+        <v>4.486919140808633</v>
       </c>
       <c r="L80" t="n">
-        <v>40.11797004896298</v>
+        <v>40.11797004896337</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01019658885008326</v>
+        <v>0.010196588850083</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1261563935568885</v>
+        <v>0.126156393556908</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0002135000000009768</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.3316358820770021</v>
       </c>
       <c r="F81" t="n">
-        <v>28.32674071742761</v>
+        <v>28.32674071742435</v>
       </c>
       <c r="G81" t="n">
-        <v>99.32043277180297</v>
+        <v>99.32043277180099</v>
       </c>
       <c r="H81" t="n">
-        <v>7.439721736981818</v>
+        <v>7.439721736980665</v>
       </c>
       <c r="I81" t="n">
         <v>22.81548823738686</v>
@@ -4655,16 +4655,16 @@
         <v>29.68449734234962</v>
       </c>
       <c r="K81" t="n">
-        <v>22.68865922727388</v>
+        <v>22.68865922727348</v>
       </c>
       <c r="L81" t="n">
-        <v>26.29919443138706</v>
+        <v>26.29919443138403</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02061958868049029</v>
+        <v>0.02061958868049548</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7932918872786276</v>
+        <v>0.7932918872791821</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003358000000019956</v>
+        <v>0.0002390000000005443</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.8100147063852</v>
       </c>
       <c r="F82" t="n">
-        <v>30.35498909569809</v>
+        <v>30.35498909569489</v>
       </c>
       <c r="G82" t="n">
         <v>91.68154954679383</v>
       </c>
       <c r="H82" t="n">
-        <v>11.87281572616585</v>
+        <v>11.87281572616425</v>
       </c>
       <c r="I82" t="n">
         <v>29.25110244472909</v>
@@ -4707,16 +4707,16 @@
         <v>30.30774104493361</v>
       </c>
       <c r="K82" t="n">
-        <v>29.26739372872314</v>
+        <v>29.26739372872291</v>
       </c>
       <c r="L82" t="n">
-        <v>31.31822506516422</v>
+        <v>31.31822506516055</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01248227050339553</v>
+        <v>0.01248227050339834</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2215384500298453</v>
+        <v>0.2215384500292353</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003361999999924592</v>
+        <v>0.0002023999999991588</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.1359900342218655</v>
       </c>
       <c r="F83" t="n">
-        <v>29.64493929460837</v>
+        <v>29.64493929460932</v>
       </c>
       <c r="G83" t="n">
-        <v>69.75552647477438</v>
+        <v>69.75552647477416</v>
       </c>
       <c r="H83" t="n">
-        <v>6.350624562059961</v>
+        <v>6.350624562060286</v>
       </c>
       <c r="I83" t="n">
         <v>15.81851978734653</v>
@@ -4759,16 +4759,16 @@
         <v>32.34144758506243</v>
       </c>
       <c r="K83" t="n">
-        <v>15.79339735124815</v>
+        <v>15.79339735124823</v>
       </c>
       <c r="L83" t="n">
-        <v>30.82930076425658</v>
+        <v>30.82930076425773</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01129126298896252</v>
+        <v>0.01129126298896174</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4894784678921105</v>
+        <v>0.4894784678919164</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0002995000000112213</v>
+        <v>0.0001971000000011713</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.9159349597244</v>
       </c>
       <c r="F84" t="n">
-        <v>29.70515525323464</v>
+        <v>29.70515525323541</v>
       </c>
       <c r="G84" t="n">
-        <v>48.14877275603164</v>
+        <v>48.14877275603205</v>
       </c>
       <c r="H84" t="n">
-        <v>11.00293439705848</v>
+        <v>11.00293439705877</v>
       </c>
       <c r="I84" t="n">
         <v>17.00129706224179</v>
@@ -4811,16 +4811,16 @@
         <v>37.32399253950987</v>
       </c>
       <c r="K84" t="n">
-        <v>16.98065130006384</v>
+        <v>16.9806513000639</v>
       </c>
       <c r="L84" t="n">
-        <v>37.53450898771256</v>
+        <v>37.53450898771354</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0113266691523413</v>
+        <v>0.01132666915234063</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1271793471182647</v>
+        <v>0.1271793471183455</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003094000000061214</v>
+        <v>0.0002005999999994401</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.9150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>29.58617882991921</v>
+        <v>29.58617882992163</v>
       </c>
       <c r="G85" t="n">
-        <v>45.12716644633967</v>
+        <v>45.1271664463392</v>
       </c>
       <c r="H85" t="n">
-        <v>11.45175084244592</v>
+        <v>11.45175084244747</v>
       </c>
       <c r="I85" t="n">
         <v>16.53125344579031</v>
@@ -4863,16 +4863,16 @@
         <v>38.26062136792312</v>
       </c>
       <c r="K85" t="n">
-        <v>16.50647769823259</v>
+        <v>16.50647769823275</v>
       </c>
       <c r="L85" t="n">
-        <v>38.24134261963911</v>
+        <v>38.24134261964313</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01063954885430549</v>
+        <v>0.01063954885430327</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09049639682556249</v>
+        <v>0.09049639682570226</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.000325399999994147</v>
+        <v>0.0004331000000021845</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.01316122019755319</v>
       </c>
       <c r="F86" t="n">
-        <v>29.74948678026395</v>
+        <v>29.74948678026356</v>
       </c>
       <c r="G86" t="n">
-        <v>7.991863242714997</v>
+        <v>7.991863242714285</v>
       </c>
       <c r="H86" t="n">
-        <v>7.435065438272463</v>
+        <v>7.43506543827345</v>
       </c>
       <c r="I86" t="n">
         <v>3.881837099353531</v>
@@ -4918,13 +4918,13 @@
         <v>3.84554275538775</v>
       </c>
       <c r="L86" t="n">
-        <v>36.04971611746058</v>
+        <v>36.04971611746139</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01133028096106489</v>
+        <v>0.0113302809610648</v>
       </c>
       <c r="N86" t="n">
-        <v>0.03082198534803301</v>
+        <v>0.03082198534768217</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003259000000070955</v>
+        <v>0.0002425999999999817</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9823149278921</v>
       </c>
       <c r="F87" t="n">
-        <v>29.80140396764587</v>
+        <v>29.80140396764637</v>
       </c>
       <c r="G87" t="n">
-        <v>111.1711211331287</v>
+        <v>111.1711211331258</v>
       </c>
       <c r="H87" t="n">
-        <v>9.037975292360109</v>
+        <v>9.037975292360311</v>
       </c>
       <c r="I87" t="n">
         <v>25.87965439725306</v>
@@ -4967,16 +4967,16 @@
         <v>25.95106000866057</v>
       </c>
       <c r="K87" t="n">
-        <v>25.85300812805224</v>
+        <v>25.8530081280522</v>
       </c>
       <c r="L87" t="n">
-        <v>25.85587934766238</v>
+        <v>25.85587934766339</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01037217502348955</v>
+        <v>0.01037217502348905</v>
       </c>
       <c r="N87" t="n">
-        <v>0.044245791005284</v>
+        <v>0.04424579100524273</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003217000000006465</v>
+        <v>0.0002142999999961148</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.05962857189673432</v>
       </c>
       <c r="F88" t="n">
-        <v>29.81272913580035</v>
+        <v>29.8127291358005</v>
       </c>
       <c r="G88" t="n">
-        <v>40.7387457890145</v>
+        <v>40.73874578900935</v>
       </c>
       <c r="H88" t="n">
-        <v>4.691444972992524</v>
+        <v>4.691444972993248</v>
       </c>
       <c r="I88" t="n">
         <v>8.841399981764416</v>
@@ -5019,16 +5019,16 @@
         <v>33.06978590212768</v>
       </c>
       <c r="K88" t="n">
-        <v>8.808781404314084</v>
+        <v>8.808781404314097</v>
       </c>
       <c r="L88" t="n">
-        <v>31.83748721202486</v>
+        <v>31.83748721202602</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01060173049444344</v>
+        <v>0.01060173049444296</v>
       </c>
       <c r="N88" t="n">
-        <v>0.5387369429754093</v>
+        <v>0.5387369429748842</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003307000000063454</v>
+        <v>0.0001987999999997214</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9627624479147</v>
       </c>
       <c r="F89" t="n">
-        <v>29.90235501062474</v>
+        <v>29.90235501063454</v>
       </c>
       <c r="G89" t="n">
-        <v>117.8880383344371</v>
+        <v>117.8880383344346</v>
       </c>
       <c r="H89" t="n">
-        <v>14.42493384415184</v>
+        <v>14.42493384415767</v>
       </c>
       <c r="I89" t="n">
         <v>40.62090861008976</v>
@@ -5071,16 +5071,16 @@
         <v>25.30051964941712</v>
       </c>
       <c r="K89" t="n">
-        <v>40.60578241184746</v>
+        <v>40.60578241184809</v>
       </c>
       <c r="L89" t="n">
-        <v>25.27556639950198</v>
+        <v>25.27556639951168</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01034558434636393</v>
+        <v>0.01034558434635679</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01727169575392206</v>
+        <v>0.01727169575218023</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.000305599999990136</v>
+        <v>0.0001960000000025275</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9893115695848</v>
       </c>
       <c r="F90" t="n">
-        <v>29.94380673240284</v>
+        <v>29.94380673240049</v>
       </c>
       <c r="G90" t="n">
-        <v>116.3541757945611</v>
+        <v>116.3541757945634</v>
       </c>
       <c r="H90" t="n">
-        <v>9.06332911950766</v>
+        <v>9.063329119506744</v>
       </c>
       <c r="I90" t="n">
         <v>25.88603784183202</v>
@@ -5123,16 +5123,16 @@
         <v>25.01898544775609</v>
       </c>
       <c r="K90" t="n">
-        <v>25.86985312626178</v>
+        <v>25.86985312626162</v>
       </c>
       <c r="L90" t="n">
-        <v>25.00522294223806</v>
+        <v>25.00522294223553</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01008226666074257</v>
+        <v>0.01008226666074436</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01627025028061672</v>
+        <v>0.01627025028102346</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003137000000066337</v>
+        <v>0.0004678000000026827</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.169373002654711</v>
       </c>
       <c r="F91" t="n">
-        <v>29.33773860857571</v>
+        <v>29.3377386085749</v>
       </c>
       <c r="G91" t="n">
-        <v>99.10251180434922</v>
+        <v>99.1025118043478</v>
       </c>
       <c r="H91" t="n">
-        <v>5.59559416231425</v>
+        <v>5.595594162314034</v>
       </c>
       <c r="I91" t="n">
         <v>17.15632957635029</v>
@@ -5175,16 +5175,16 @@
         <v>28.66617941202903</v>
       </c>
       <c r="K91" t="n">
-        <v>17.08695037873706</v>
+        <v>17.08695037873697</v>
       </c>
       <c r="L91" t="n">
-        <v>26.84386031449444</v>
+        <v>26.8438603144938</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01240669479535838</v>
+        <v>0.0124066947953591</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5480961194092576</v>
+        <v>0.5480961194093771</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.00059500000000412</v>
+        <v>0.0002344000000036317</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.0224486668199389</v>
       </c>
       <c r="F92" t="n">
-        <v>29.6386949287051</v>
+        <v>29.63869492870582</v>
       </c>
       <c r="G92" t="n">
-        <v>28.2660892578072</v>
+        <v>28.26608925780694</v>
       </c>
       <c r="H92" t="n">
-        <v>4.548444030550006</v>
+        <v>4.548444030550344</v>
       </c>
       <c r="I92" t="n">
         <v>6.799638401444717</v>
@@ -5227,16 +5227,16 @@
         <v>32.8194763419126</v>
       </c>
       <c r="K92" t="n">
-        <v>6.749244090348478</v>
+        <v>6.749244090348554</v>
       </c>
       <c r="L92" t="n">
-        <v>32.05174151993977</v>
+        <v>32.05174151994085</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01093839749522982</v>
+        <v>0.01093839749522922</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2451732799237507</v>
+        <v>0.2451732799235024</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003127000000091584</v>
+        <v>0.0002036000000060767</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.06061210177347404</v>
       </c>
       <c r="F93" t="n">
-        <v>29.63057104281552</v>
+        <v>29.63057104281645</v>
       </c>
       <c r="G93" t="n">
-        <v>38.69425318783921</v>
+        <v>38.69425318784089</v>
       </c>
       <c r="H93" t="n">
-        <v>6.174565888178687</v>
+        <v>6.174565888178724</v>
       </c>
       <c r="I93" t="n">
         <v>10.12608089519902</v>
@@ -5279,16 +5279,16 @@
         <v>34.65343846802563</v>
       </c>
       <c r="K93" t="n">
-        <v>10.08622315233689</v>
+        <v>10.08622315233696</v>
       </c>
       <c r="L93" t="n">
-        <v>33.31206676387436</v>
+        <v>33.31206676387521</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01000927940918186</v>
+        <v>0.01000927940918137</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4156905483341873</v>
+        <v>0.4156905483341616</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.0001980999999986466</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9769700758218</v>
       </c>
       <c r="F94" t="n">
-        <v>29.87353575501332</v>
+        <v>29.87353575500972</v>
       </c>
       <c r="G94" t="n">
-        <v>159.3924763082929</v>
+        <v>159.392476308295</v>
       </c>
       <c r="H94" t="n">
-        <v>12.39639886283963</v>
+        <v>12.39639886283812</v>
       </c>
       <c r="I94" t="n">
         <v>25.62795621500346</v>
@@ -5331,16 +5331,16 @@
         <v>14.83878058168517</v>
       </c>
       <c r="K94" t="n">
-        <v>25.62059319064931</v>
+        <v>25.62059319064881</v>
       </c>
       <c r="L94" t="n">
-        <v>14.78726299568859</v>
+        <v>14.78726299568622</v>
       </c>
       <c r="M94" t="n">
-        <v>0.009146454614074409</v>
+        <v>0.009146454614076358</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02263300654694823</v>
+        <v>0.0226330065475863</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003085000000027094</v>
+        <v>0.0001945000000063146</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.8369801919656</v>
       </c>
       <c r="F95" t="n">
-        <v>30.28044642061304</v>
+        <v>30.28044642061585</v>
       </c>
       <c r="G95" t="n">
-        <v>106.651147608637</v>
+        <v>106.6511476086374</v>
       </c>
       <c r="H95" t="n">
-        <v>11.17896129216544</v>
+        <v>11.17896129216676</v>
       </c>
       <c r="I95" t="n">
         <v>30.33422199235522</v>
@@ -5383,16 +5383,16 @@
         <v>26.76193268396159</v>
       </c>
       <c r="K95" t="n">
-        <v>30.33087104189918</v>
+        <v>30.33087104189946</v>
       </c>
       <c r="L95" t="n">
-        <v>27.59749368687443</v>
+        <v>27.59749368687714</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01116386401043939</v>
+        <v>0.01116386401043735</v>
       </c>
       <c r="N95" t="n">
-        <v>0.181493900461904</v>
+        <v>0.181493900462296</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003190999999986843</v>
+        <v>0.0004486999999997465</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.9256546784487</v>
       </c>
       <c r="F96" t="n">
-        <v>29.99965218162489</v>
+        <v>29.9996521816316</v>
       </c>
       <c r="G96" t="n">
-        <v>128.1124970442031</v>
+        <v>128.112497044199</v>
       </c>
       <c r="H96" t="n">
-        <v>10.26204938289781</v>
+        <v>10.26204938290061</v>
       </c>
       <c r="I96" t="n">
         <v>28.70555251722355</v>
@@ -5435,16 +5435,16 @@
         <v>22.27073467156608</v>
       </c>
       <c r="K96" t="n">
-        <v>28.67736407622907</v>
+        <v>28.67736407622967</v>
       </c>
       <c r="L96" t="n">
-        <v>22.54859245929598</v>
+        <v>22.54859245930217</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01056632125273958</v>
+        <v>0.01056632125273516</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06824443051652311</v>
+        <v>0.06824443051625907</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0002469000000004939</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.06642888995524825</v>
       </c>
       <c r="F97" t="n">
-        <v>29.82046148371286</v>
+        <v>29.82046148371355</v>
       </c>
       <c r="G97" t="n">
-        <v>45.21393579168015</v>
+        <v>45.21393579168446</v>
       </c>
       <c r="H97" t="n">
-        <v>4.636343511667358</v>
+        <v>4.636343511667093</v>
       </c>
       <c r="I97" t="n">
         <v>9.443662727940012</v>
@@ -5487,16 +5487,16 @@
         <v>32.60134686113346</v>
       </c>
       <c r="K97" t="n">
-        <v>9.402342690768691</v>
+        <v>9.402342690768755</v>
       </c>
       <c r="L97" t="n">
-        <v>31.54725224947655</v>
+        <v>31.54725224947673</v>
       </c>
       <c r="M97" t="n">
-        <v>0.009997742671244651</v>
+        <v>0.009997742671244394</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4731396844678959</v>
+        <v>0.4731396844681061</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003029000000083215</v>
+        <v>0.0002045000000023833</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>29.54315427056824</v>
+        <v>29.54315427056735</v>
       </c>
       <c r="G98" t="n">
-        <v>38.61494929719852</v>
+        <v>38.61494929719873</v>
       </c>
       <c r="H98" t="n">
-        <v>13.62552321701421</v>
+        <v>13.62552321701348</v>
       </c>
       <c r="I98" t="n">
         <v>16.00737530966048</v>
@@ -5539,16 +5539,16 @@
         <v>42.05525927522663</v>
       </c>
       <c r="K98" t="n">
-        <v>15.98200500862241</v>
+        <v>15.98200500862236</v>
       </c>
       <c r="L98" t="n">
-        <v>41.2987502803217</v>
+        <v>41.29875028032001</v>
       </c>
       <c r="M98" t="n">
-        <v>0.009902452386025627</v>
+        <v>0.009902452386026328</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08887771135364179</v>
+        <v>0.08887771135384859</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003164999999967222</v>
+        <v>0.0002002999999959343</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.1751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>28.4842496556043</v>
+        <v>28.48424965561383</v>
       </c>
       <c r="G99" t="n">
-        <v>152.5975972619118</v>
+        <v>152.5975972619083</v>
       </c>
       <c r="H99" t="n">
-        <v>13.90061879754887</v>
+        <v>13.90061879755422</v>
       </c>
       <c r="I99" t="n">
         <v>39.03082884889427</v>
@@ -5591,16 +5591,16 @@
         <v>15.53497559712574</v>
       </c>
       <c r="K99" t="n">
-        <v>38.93574805362933</v>
+        <v>38.93574805363065</v>
       </c>
       <c r="L99" t="n">
-        <v>14.21693020805886</v>
+        <v>14.21693020806464</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01237839362692405</v>
+        <v>0.01237839362690485</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3405870569331275</v>
+        <v>0.3405870569311801</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.0001958000000001903</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9526282918734</v>
       </c>
       <c r="F100" t="n">
-        <v>29.80691407854054</v>
+        <v>29.80691407853533</v>
       </c>
       <c r="G100" t="n">
-        <v>131.0583377811026</v>
+        <v>131.0583377811042</v>
       </c>
       <c r="H100" t="n">
-        <v>9.707410344750823</v>
+        <v>9.707410344748668</v>
       </c>
       <c r="I100" t="n">
         <v>26.96775176704555</v>
@@ -5643,16 +5643,16 @@
         <v>21.92280540344407</v>
       </c>
       <c r="K100" t="n">
-        <v>26.93901706300199</v>
+        <v>26.9390170630014</v>
       </c>
       <c r="L100" t="n">
-        <v>21.91751998081557</v>
+        <v>21.91751998081124</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01149429486793191</v>
+        <v>0.0114942948679356</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0515323854992799</v>
+        <v>0.05153238550026745</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003262999999975591</v>
+        <v>0.0003419000000022265</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0142358842701934</v>
       </c>
       <c r="F101" t="n">
-        <v>29.70366604911073</v>
+        <v>29.70366604911436</v>
       </c>
       <c r="G101" t="n">
-        <v>121.6774123262793</v>
+        <v>121.677412326277</v>
       </c>
       <c r="H101" t="n">
-        <v>8.749100320913877</v>
+        <v>8.74910032091525</v>
       </c>
       <c r="I101" t="n">
         <v>25.13702639845252</v>
@@ -5695,16 +5695,16 @@
         <v>24.19989479699868</v>
       </c>
       <c r="K101" t="n">
-        <v>25.11444858640652</v>
+        <v>25.11444858640687</v>
       </c>
       <c r="L101" t="n">
-        <v>23.82644922673817</v>
+        <v>23.8264492267417</v>
       </c>
       <c r="M101" t="n">
-        <v>0.009892804116926978</v>
+        <v>0.009892804116924012</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07848528780642453</v>
+        <v>0.0784852878056502</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0004488000000009151</v>
+        <v>0.0002325000000027444</v>
       </c>
     </row>
   </sheetData>
